--- a/test_case/Authentication/login/login_ui_ux_testing(nadira).xlsx
+++ b/test_case/Authentication/login/login_ui_ux_testing(nadira).xlsx
@@ -48,9 +48,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>TC-UX-060</t>
-  </si>
-  <si>
     <t>Login page URL accessible</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
   </si>
   <si>
     <t>UI should be visually clean, aligned, readable</t>
-  </si>
-  <si>
-    <t>TC-UX-061</t>
   </si>
   <si>
     <t>Login page loaded</t>
@@ -79,9 +73,6 @@
     <t>Fonts &amp; colors consistent across page</t>
   </si>
   <si>
-    <t>TC-UX-062</t>
-  </si>
-  <si>
     <t>Check field labels clarity</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
   </si>
   <si>
     <t>Labels should clearly indicate input requirement</t>
-  </si>
-  <si>
-    <t>TC-UX-063</t>
   </si>
   <si>
     <t>Placeholder usability</t>
@@ -103,9 +91,6 @@
     <t>Placeholder text should guide user clearly</t>
   </si>
   <si>
-    <t>TC-UX-064</t>
-  </si>
-  <si>
     <t>Button visibility &amp; design</t>
   </si>
   <si>
@@ -113,9 +98,6 @@
   </si>
   <si>
     <t>Button should be prominent, properly sized &amp; visually distinct</t>
-  </si>
-  <si>
-    <t>TC-UX-065</t>
   </si>
   <si>
     <t>Hover effect / click feedback</t>
@@ -128,9 +110,6 @@
     <t>Visual feedback (hover, click) should be noticeable</t>
   </si>
   <si>
-    <t>TC-UX-066</t>
-  </si>
-  <si>
     <t>Check password masking</t>
   </si>
   <si>
@@ -138,9 +117,6 @@
   </si>
   <si>
     <t>Characters hidden (masked) by default</t>
-  </si>
-  <si>
-    <t>TC-UX-067</t>
   </si>
   <si>
     <t>Check show/hide password toggle</t>
@@ -152,9 +128,6 @@
     <t>Password visibility toggles correctly</t>
   </si>
   <si>
-    <t>TC-UX-068</t>
-  </si>
-  <si>
     <t>Check tab order navigation</t>
   </si>
   <si>
@@ -162,9 +135,6 @@
   </si>
   <si>
     <t>Focus moves in logical sequence (email → password → login)</t>
-  </si>
-  <si>
-    <t>TC-UX-069</t>
   </si>
   <si>
     <t>Error message visibility &amp; clarity</t>
@@ -177,9 +147,6 @@
     <t>Error messages clear, readable, near respective field</t>
   </si>
   <si>
-    <t>TC-UX-070</t>
-  </si>
-  <si>
     <t>Check link visibility</t>
   </si>
   <si>
@@ -187,9 +154,6 @@
   </si>
   <si>
     <t>Links are visible, readable &amp; clickable</t>
-  </si>
-  <si>
-    <t>TC-UX-071</t>
   </si>
   <si>
     <t>Check readability of text</t>
@@ -201,9 +165,6 @@
     <t>Text readable, font size adequate</t>
   </si>
   <si>
-    <t>TC-UX-072</t>
-  </si>
-  <si>
     <t>Check Forgot Password workflow UX</t>
   </si>
   <si>
@@ -211,6 +172,45 @@
   </si>
   <si>
     <t>User redirected to reset page with clear instructions</t>
+  </si>
+  <si>
+    <t>TC-UX-043</t>
+  </si>
+  <si>
+    <t>TC-UX-044</t>
+  </si>
+  <si>
+    <t>TC-UX-045</t>
+  </si>
+  <si>
+    <t>TC-UX-046</t>
+  </si>
+  <si>
+    <t>TC-UX-047</t>
+  </si>
+  <si>
+    <t>TC-UX-048</t>
+  </si>
+  <si>
+    <t>TC-UX-049</t>
+  </si>
+  <si>
+    <t>TC-UX-050</t>
+  </si>
+  <si>
+    <t>TC-UX-051</t>
+  </si>
+  <si>
+    <t>TC-UX-052</t>
+  </si>
+  <si>
+    <t>TC-UX-053</t>
+  </si>
+  <si>
+    <t>TC-UX-054</t>
+  </si>
+  <si>
+    <t>TC-UX-055</t>
   </si>
 </sst>
 </file>
@@ -229,26 +229,31 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -408,6 +413,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -416,12 +427,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,8 +647,8 @@
   </sheetPr>
   <dimension ref="A1:AA993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -657,17 +662,17 @@
     <col min="8" max="8" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -688,15 +693,15 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
+    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -730,7 +735,7 @@
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -764,291 +769,291 @@
     </row>
     <row r="4" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="7">
+        <v>143</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7">
-        <v>160</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="7">
+        <v>144</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7">
-        <v>161</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B6" s="7">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>21</v>
+      <c r="E6" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:27" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B7" s="7">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>25</v>
+      <c r="E7" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B8" s="7">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>29</v>
+      <c r="E8" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B9" s="7">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>33</v>
+      <c r="E9" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B10" s="7">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>37</v>
+      <c r="E10" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B11" s="7">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>41</v>
+      <c r="E11" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B12" s="7">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>45</v>
+      <c r="E12" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B13" s="7">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>49</v>
+      <c r="E13" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B14" s="7">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>53</v>
+      <c r="E14" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B15" s="7">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>57</v>
+      <c r="E15" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B16" s="7">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>61</v>
+      <c r="E16" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
@@ -1056,7 +1061,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="9"/>
@@ -1064,7 +1069,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="9"/>
@@ -1072,7 +1077,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="9"/>
@@ -1080,7 +1085,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="9"/>
@@ -1088,7 +1093,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
@@ -1096,7 +1101,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="9"/>
@@ -1104,7 +1109,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="9"/>
@@ -1112,7 +1117,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="9"/>
@@ -1120,7 +1125,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="9"/>
@@ -1128,7 +1133,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="9"/>
@@ -1136,7 +1141,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="9"/>
@@ -1144,7 +1149,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="10"/>
       <c r="C29" s="9"/>
@@ -1152,7 +1157,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="10"/>
       <c r="C30" s="9"/>
@@ -1160,7 +1165,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="10"/>
       <c r="C31" s="9"/>
@@ -1168,7 +1173,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="9"/>
@@ -1176,7 +1181,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="9"/>
@@ -1184,7 +1189,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="9"/>
@@ -1192,7 +1197,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="9"/>
@@ -1200,7 +1205,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="9"/>
@@ -1208,7 +1213,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="10"/>
       <c r="C37" s="9"/>
@@ -1216,7 +1221,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="C38" s="9"/>
@@ -1224,7 +1229,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
       <c r="C39" s="9"/>
@@ -1232,7 +1237,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="10"/>
       <c r="C40" s="9"/>
@@ -1240,7 +1245,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="10"/>
       <c r="C41" s="9"/>
@@ -1248,7 +1253,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="9"/>
@@ -1256,7 +1261,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="9"/>
@@ -1264,7 +1269,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="9"/>
@@ -1272,7 +1277,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="9"/>
@@ -1280,7 +1285,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
       <c r="C46" s="9"/>
@@ -1288,7 +1293,7 @@
       <c r="E46" s="9"/>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="10"/>
       <c r="C47" s="9"/>
@@ -1296,7 +1301,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="10"/>
       <c r="C48" s="9"/>
@@ -1304,7 +1309,7 @@
       <c r="E48" s="9"/>
       <c r="F48" s="11"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="10"/>
       <c r="C49" s="9"/>
@@ -1312,7 +1317,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="10"/>
       <c r="C50" s="9"/>
@@ -1320,7 +1325,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="9"/>
@@ -1328,7 +1333,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="11"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
       <c r="C52" s="9"/>
@@ -1336,7 +1341,7 @@
       <c r="E52" s="9"/>
       <c r="F52" s="11"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="9"/>
@@ -1344,7 +1349,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="11"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="9"/>
@@ -1352,7 +1357,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="10"/>
       <c r="C55" s="9"/>
@@ -1360,7 +1365,7 @@
       <c r="E55" s="9"/>
       <c r="F55" s="11"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" s="10"/>
       <c r="C56" s="9"/>
@@ -1368,7 +1373,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="11"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="10"/>
       <c r="C57" s="9"/>
@@ -1376,7 +1381,7 @@
       <c r="E57" s="9"/>
       <c r="F57" s="11"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="10"/>
       <c r="C58" s="9"/>
@@ -1384,7 +1389,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="11"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="10"/>
       <c r="C59" s="9"/>
@@ -1392,7 +1397,7 @@
       <c r="E59" s="9"/>
       <c r="F59" s="11"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
       <c r="C60" s="9"/>
@@ -1400,7 +1405,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="11"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="9"/>
@@ -1408,7 +1413,7 @@
       <c r="E61" s="9"/>
       <c r="F61" s="11"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="9"/>
@@ -1416,7 +1421,7 @@
       <c r="E62" s="9"/>
       <c r="F62" s="11"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="C63" s="9"/>
@@ -1424,7 +1429,7 @@
       <c r="E63" s="9"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="10"/>
       <c r="C64" s="9"/>
@@ -1432,7 +1437,7 @@
       <c r="E64" s="9"/>
       <c r="F64" s="11"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="B65" s="10"/>
       <c r="C65" s="9"/>
@@ -1440,7 +1445,7 @@
       <c r="E65" s="9"/>
       <c r="F65" s="11"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="B66" s="10"/>
       <c r="C66" s="9"/>
@@ -1448,7 +1453,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="B67" s="10"/>
       <c r="C67" s="9"/>
@@ -1456,7 +1461,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="11"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="B68" s="10"/>
       <c r="C68" s="9"/>
@@ -1464,7 +1469,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="11"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="9"/>
@@ -1472,7 +1477,7 @@
       <c r="E69" s="9"/>
       <c r="F69" s="11"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="10"/>
       <c r="C70" s="9"/>
@@ -1480,7 +1485,7 @@
       <c r="E70" s="9"/>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="10"/>
       <c r="C71" s="9"/>
@@ -1488,7 +1493,7 @@
       <c r="E71" s="9"/>
       <c r="F71" s="11"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="9"/>
@@ -1496,7 +1501,7 @@
       <c r="E72" s="9"/>
       <c r="F72" s="11"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="10"/>
       <c r="C73" s="9"/>
@@ -1504,7 +1509,7 @@
       <c r="E73" s="9"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="B74" s="10"/>
       <c r="C74" s="9"/>
@@ -1512,7 +1517,7 @@
       <c r="E74" s="9"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="B75" s="10"/>
       <c r="C75" s="9"/>
@@ -1520,7 +1525,7 @@
       <c r="E75" s="9"/>
       <c r="F75" s="11"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
       <c r="B76" s="10"/>
       <c r="C76" s="9"/>
@@ -1528,7 +1533,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="11"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
       <c r="B77" s="10"/>
       <c r="C77" s="9"/>
@@ -1536,7 +1541,7 @@
       <c r="E77" s="9"/>
       <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="C78" s="9"/>
@@ -1544,7 +1549,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="10"/>
       <c r="C79" s="9"/>
@@ -1552,7 +1557,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="11"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
       <c r="C80" s="9"/>
@@ -1560,7 +1565,7 @@
       <c r="E80" s="9"/>
       <c r="F80" s="11"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="9"/>
@@ -1568,7 +1573,7 @@
       <c r="E81" s="9"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
       <c r="B82" s="10"/>
       <c r="C82" s="9"/>
@@ -1576,7 +1581,7 @@
       <c r="E82" s="9"/>
       <c r="F82" s="11"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
       <c r="B83" s="10"/>
       <c r="C83" s="9"/>
@@ -1584,7 +1589,7 @@
       <c r="E83" s="9"/>
       <c r="F83" s="11"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="9"/>
       <c r="B84" s="10"/>
       <c r="C84" s="9"/>
@@ -1592,7 +1597,7 @@
       <c r="E84" s="9"/>
       <c r="F84" s="11"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
       <c r="B85" s="10"/>
       <c r="C85" s="9"/>
@@ -1600,7 +1605,7 @@
       <c r="E85" s="9"/>
       <c r="F85" s="11"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="9"/>
       <c r="B86" s="10"/>
       <c r="C86" s="9"/>
@@ -1608,7 +1613,7 @@
       <c r="E86" s="9"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="9"/>
@@ -1616,7 +1621,7 @@
       <c r="E87" s="9"/>
       <c r="F87" s="11"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="9"/>
@@ -1624,7 +1629,7 @@
       <c r="E88" s="9"/>
       <c r="F88" s="11"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="9"/>
@@ -1632,7 +1637,7 @@
       <c r="E89" s="9"/>
       <c r="F89" s="11"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="9"/>
@@ -1640,7 +1645,7 @@
       <c r="E90" s="9"/>
       <c r="F90" s="11"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="B91" s="10"/>
       <c r="C91" s="9"/>
@@ -1648,7 +1653,7 @@
       <c r="E91" s="9"/>
       <c r="F91" s="11"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
       <c r="B92" s="10"/>
       <c r="C92" s="9"/>
@@ -1656,7 +1661,7 @@
       <c r="E92" s="9"/>
       <c r="F92" s="11"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="B93" s="10"/>
       <c r="C93" s="9"/>
@@ -1664,7 +1669,7 @@
       <c r="E93" s="9"/>
       <c r="F93" s="11"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="9"/>
       <c r="B94" s="10"/>
       <c r="C94" s="9"/>
@@ -1672,7 +1677,7 @@
       <c r="E94" s="9"/>
       <c r="F94" s="11"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="9"/>
       <c r="B95" s="10"/>
       <c r="C95" s="9"/>
@@ -1680,7 +1685,7 @@
       <c r="E95" s="9"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="9"/>
       <c r="B96" s="10"/>
       <c r="C96" s="9"/>
@@ -1688,7 +1693,7 @@
       <c r="E96" s="9"/>
       <c r="F96" s="11"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="9"/>
       <c r="B97" s="10"/>
       <c r="C97" s="9"/>
@@ -1696,7 +1701,7 @@
       <c r="E97" s="9"/>
       <c r="F97" s="11"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="9"/>
       <c r="B98" s="10"/>
       <c r="C98" s="9"/>
@@ -1704,7 +1709,7 @@
       <c r="E98" s="9"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="9"/>
       <c r="B99" s="10"/>
       <c r="C99" s="9"/>
@@ -1712,7 +1717,7 @@
       <c r="E99" s="9"/>
       <c r="F99" s="11"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="9"/>
       <c r="B100" s="10"/>
       <c r="C100" s="9"/>
@@ -1720,7 +1725,7 @@
       <c r="E100" s="9"/>
       <c r="F100" s="11"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="9"/>
       <c r="B101" s="10"/>
       <c r="C101" s="9"/>
@@ -1728,7 +1733,7 @@
       <c r="E101" s="9"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="9"/>
       <c r="B102" s="10"/>
       <c r="C102" s="9"/>
@@ -1736,7 +1741,7 @@
       <c r="E102" s="9"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="9"/>
       <c r="B103" s="10"/>
       <c r="C103" s="9"/>
@@ -1744,7 +1749,7 @@
       <c r="E103" s="9"/>
       <c r="F103" s="11"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="9"/>
       <c r="B104" s="10"/>
       <c r="C104" s="9"/>
@@ -1752,7 +1757,7 @@
       <c r="E104" s="9"/>
       <c r="F104" s="11"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="10"/>
       <c r="C105" s="9"/>
@@ -1760,7 +1765,7 @@
       <c r="E105" s="9"/>
       <c r="F105" s="11"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
       <c r="B106" s="10"/>
       <c r="C106" s="9"/>
@@ -1768,7 +1773,7 @@
       <c r="E106" s="9"/>
       <c r="F106" s="11"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
       <c r="C107" s="9"/>
@@ -1776,7 +1781,7 @@
       <c r="E107" s="9"/>
       <c r="F107" s="11"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="9"/>
       <c r="B108" s="10"/>
       <c r="C108" s="9"/>
@@ -1784,7 +1789,7 @@
       <c r="E108" s="9"/>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="9"/>
       <c r="B109" s="10"/>
       <c r="C109" s="9"/>
@@ -1792,7 +1797,7 @@
       <c r="E109" s="9"/>
       <c r="F109" s="11"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="10"/>
       <c r="C110" s="9"/>
@@ -1800,7 +1805,7 @@
       <c r="E110" s="9"/>
       <c r="F110" s="11"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="9"/>
       <c r="B111" s="10"/>
       <c r="C111" s="9"/>
@@ -1808,7 +1813,7 @@
       <c r="E111" s="9"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="9"/>
       <c r="B112" s="10"/>
       <c r="C112" s="9"/>
@@ -1816,7 +1821,7 @@
       <c r="E112" s="9"/>
       <c r="F112" s="11"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="9"/>
       <c r="B113" s="10"/>
       <c r="C113" s="9"/>
@@ -1824,7 +1829,7 @@
       <c r="E113" s="9"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="9"/>
       <c r="B114" s="10"/>
       <c r="C114" s="9"/>
@@ -1832,7 +1837,7 @@
       <c r="E114" s="9"/>
       <c r="F114" s="11"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="9"/>
       <c r="B115" s="10"/>
       <c r="C115" s="9"/>
@@ -1840,7 +1845,7 @@
       <c r="E115" s="9"/>
       <c r="F115" s="11"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="9"/>
       <c r="B116" s="10"/>
       <c r="C116" s="9"/>
@@ -1848,7 +1853,7 @@
       <c r="E116" s="9"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="9"/>
       <c r="B117" s="10"/>
       <c r="C117" s="9"/>
@@ -1856,7 +1861,7 @@
       <c r="E117" s="9"/>
       <c r="F117" s="11"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="9"/>
       <c r="B118" s="10"/>
       <c r="C118" s="9"/>
@@ -1864,7 +1869,7 @@
       <c r="E118" s="9"/>
       <c r="F118" s="11"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="9"/>
       <c r="B119" s="10"/>
       <c r="C119" s="9"/>
@@ -1872,7 +1877,7 @@
       <c r="E119" s="9"/>
       <c r="F119" s="11"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="9"/>
       <c r="B120" s="10"/>
       <c r="C120" s="9"/>
@@ -1880,7 +1885,7 @@
       <c r="E120" s="9"/>
       <c r="F120" s="11"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="9"/>
       <c r="B121" s="10"/>
       <c r="C121" s="9"/>
@@ -1888,7 +1893,7 @@
       <c r="E121" s="9"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="9"/>
       <c r="B122" s="10"/>
       <c r="C122" s="9"/>
@@ -1896,7 +1901,7 @@
       <c r="E122" s="9"/>
       <c r="F122" s="11"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="9"/>
       <c r="B123" s="10"/>
       <c r="C123" s="9"/>
@@ -1904,7 +1909,7 @@
       <c r="E123" s="9"/>
       <c r="F123" s="11"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="9"/>
       <c r="B124" s="10"/>
       <c r="C124" s="9"/>
@@ -1912,7 +1917,7 @@
       <c r="E124" s="9"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="9"/>
       <c r="B125" s="10"/>
       <c r="C125" s="9"/>
@@ -1920,7 +1925,7 @@
       <c r="E125" s="9"/>
       <c r="F125" s="11"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="9"/>
       <c r="B126" s="10"/>
       <c r="C126" s="9"/>
@@ -1928,7 +1933,7 @@
       <c r="E126" s="9"/>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="9"/>
       <c r="B127" s="10"/>
       <c r="C127" s="9"/>
@@ -1936,7 +1941,7 @@
       <c r="E127" s="9"/>
       <c r="F127" s="11"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="9"/>
       <c r="B128" s="10"/>
       <c r="C128" s="9"/>
@@ -1944,7 +1949,7 @@
       <c r="E128" s="9"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="10"/>
       <c r="C129" s="9"/>
@@ -1952,7 +1957,7 @@
       <c r="E129" s="9"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="9"/>
       <c r="B130" s="10"/>
       <c r="C130" s="9"/>
@@ -1960,7 +1965,7 @@
       <c r="E130" s="9"/>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="9"/>
       <c r="B131" s="10"/>
       <c r="C131" s="9"/>
@@ -1968,7 +1973,7 @@
       <c r="E131" s="9"/>
       <c r="F131" s="11"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="B132" s="10"/>
       <c r="C132" s="9"/>
@@ -1976,7 +1981,7 @@
       <c r="E132" s="9"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="9"/>
       <c r="B133" s="10"/>
       <c r="C133" s="9"/>
@@ -1984,7 +1989,7 @@
       <c r="E133" s="9"/>
       <c r="F133" s="11"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="9"/>
       <c r="B134" s="10"/>
       <c r="C134" s="9"/>
@@ -1992,7 +1997,7 @@
       <c r="E134" s="9"/>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="9"/>
       <c r="B135" s="10"/>
       <c r="C135" s="9"/>
@@ -2000,7 +2005,7 @@
       <c r="E135" s="9"/>
       <c r="F135" s="11"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="9"/>
       <c r="B136" s="10"/>
       <c r="C136" s="9"/>
@@ -2008,7 +2013,7 @@
       <c r="E136" s="9"/>
       <c r="F136" s="11"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="9"/>
       <c r="B137" s="10"/>
       <c r="C137" s="9"/>
@@ -2016,7 +2021,7 @@
       <c r="E137" s="9"/>
       <c r="F137" s="11"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="9"/>
       <c r="B138" s="10"/>
       <c r="C138" s="9"/>
@@ -2024,7 +2029,7 @@
       <c r="E138" s="9"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="9"/>
       <c r="B139" s="10"/>
       <c r="C139" s="9"/>
@@ -2032,7 +2037,7 @@
       <c r="E139" s="9"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="9"/>
       <c r="B140" s="10"/>
       <c r="C140" s="9"/>
@@ -2040,7 +2045,7 @@
       <c r="E140" s="9"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="9"/>
       <c r="B141" s="10"/>
       <c r="C141" s="9"/>
@@ -2048,7 +2053,7 @@
       <c r="E141" s="9"/>
       <c r="F141" s="11"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="9"/>
       <c r="B142" s="10"/>
       <c r="C142" s="9"/>
@@ -2056,7 +2061,7 @@
       <c r="E142" s="9"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="9"/>
       <c r="B143" s="10"/>
       <c r="C143" s="9"/>
@@ -2064,7 +2069,7 @@
       <c r="E143" s="9"/>
       <c r="F143" s="11"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="9"/>
       <c r="B144" s="10"/>
       <c r="C144" s="9"/>
@@ -2072,7 +2077,7 @@
       <c r="E144" s="9"/>
       <c r="F144" s="11"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="9"/>
       <c r="B145" s="10"/>
       <c r="C145" s="9"/>
@@ -2080,7 +2085,7 @@
       <c r="E145" s="9"/>
       <c r="F145" s="11"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="9"/>
       <c r="B146" s="10"/>
       <c r="C146" s="9"/>
@@ -2088,7 +2093,7 @@
       <c r="E146" s="9"/>
       <c r="F146" s="11"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="9"/>
       <c r="B147" s="10"/>
       <c r="C147" s="9"/>
@@ -2096,7 +2101,7 @@
       <c r="E147" s="9"/>
       <c r="F147" s="11"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="9"/>
       <c r="B148" s="10"/>
       <c r="C148" s="9"/>
@@ -2104,7 +2109,7 @@
       <c r="E148" s="9"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="9"/>
       <c r="B149" s="10"/>
       <c r="C149" s="9"/>
@@ -2112,7 +2117,7 @@
       <c r="E149" s="9"/>
       <c r="F149" s="11"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="9"/>
       <c r="B150" s="10"/>
       <c r="C150" s="9"/>
@@ -2120,7 +2125,7 @@
       <c r="E150" s="9"/>
       <c r="F150" s="11"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="9"/>
       <c r="B151" s="10"/>
       <c r="C151" s="9"/>
@@ -2128,7 +2133,7 @@
       <c r="E151" s="9"/>
       <c r="F151" s="11"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="9"/>
       <c r="B152" s="10"/>
       <c r="C152" s="9"/>
@@ -2136,7 +2141,7 @@
       <c r="E152" s="9"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="9"/>
       <c r="B153" s="10"/>
       <c r="C153" s="9"/>
@@ -2144,7 +2149,7 @@
       <c r="E153" s="9"/>
       <c r="F153" s="11"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="9"/>
       <c r="B154" s="10"/>
       <c r="C154" s="9"/>
@@ -2152,7 +2157,7 @@
       <c r="E154" s="9"/>
       <c r="F154" s="11"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="9"/>
       <c r="B155" s="10"/>
       <c r="C155" s="9"/>
@@ -2160,7 +2165,7 @@
       <c r="E155" s="9"/>
       <c r="F155" s="11"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="9"/>
       <c r="B156" s="10"/>
       <c r="C156" s="9"/>
@@ -2168,7 +2173,7 @@
       <c r="E156" s="9"/>
       <c r="F156" s="11"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="9"/>
       <c r="B157" s="10"/>
       <c r="C157" s="9"/>
@@ -2176,7 +2181,7 @@
       <c r="E157" s="9"/>
       <c r="F157" s="11"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="9"/>
       <c r="B158" s="10"/>
       <c r="C158" s="9"/>
@@ -2184,7 +2189,7 @@
       <c r="E158" s="9"/>
       <c r="F158" s="11"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="B159" s="10"/>
       <c r="C159" s="9"/>
@@ -2192,7 +2197,7 @@
       <c r="E159" s="9"/>
       <c r="F159" s="11"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="9"/>
       <c r="B160" s="10"/>
       <c r="C160" s="9"/>
@@ -2200,7 +2205,7 @@
       <c r="E160" s="9"/>
       <c r="F160" s="11"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="9"/>
       <c r="B161" s="10"/>
       <c r="C161" s="9"/>
@@ -2208,7 +2213,7 @@
       <c r="E161" s="9"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="9"/>
       <c r="B162" s="10"/>
       <c r="C162" s="9"/>
@@ -2216,7 +2221,7 @@
       <c r="E162" s="9"/>
       <c r="F162" s="11"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="9"/>
       <c r="B163" s="10"/>
       <c r="C163" s="9"/>
@@ -2224,7 +2229,7 @@
       <c r="E163" s="9"/>
       <c r="F163" s="11"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="9"/>
       <c r="B164" s="10"/>
       <c r="C164" s="9"/>
@@ -2232,7 +2237,7 @@
       <c r="E164" s="9"/>
       <c r="F164" s="11"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="9"/>
       <c r="B165" s="10"/>
       <c r="C165" s="9"/>
@@ -2240,7 +2245,7 @@
       <c r="E165" s="9"/>
       <c r="F165" s="11"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="9"/>
       <c r="B166" s="10"/>
       <c r="C166" s="9"/>
@@ -2248,7 +2253,7 @@
       <c r="E166" s="9"/>
       <c r="F166" s="11"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="9"/>
       <c r="B167" s="10"/>
       <c r="C167" s="9"/>
@@ -2256,7 +2261,7 @@
       <c r="E167" s="9"/>
       <c r="F167" s="11"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="9"/>
       <c r="B168" s="10"/>
       <c r="C168" s="9"/>
@@ -2264,7 +2269,7 @@
       <c r="E168" s="9"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="9"/>
       <c r="B169" s="10"/>
       <c r="C169" s="9"/>
@@ -2272,7 +2277,7 @@
       <c r="E169" s="9"/>
       <c r="F169" s="11"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="9"/>
       <c r="B170" s="10"/>
       <c r="C170" s="9"/>
@@ -2280,7 +2285,7 @@
       <c r="E170" s="9"/>
       <c r="F170" s="11"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="9"/>
       <c r="B171" s="10"/>
       <c r="C171" s="9"/>
@@ -2288,7 +2293,7 @@
       <c r="E171" s="9"/>
       <c r="F171" s="11"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="9"/>
       <c r="B172" s="10"/>
       <c r="C172" s="9"/>
@@ -2296,7 +2301,7 @@
       <c r="E172" s="9"/>
       <c r="F172" s="11"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="9"/>
       <c r="B173" s="10"/>
       <c r="C173" s="9"/>
@@ -2304,7 +2309,7 @@
       <c r="E173" s="9"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="9"/>
       <c r="B174" s="10"/>
       <c r="C174" s="9"/>
@@ -2312,7 +2317,7 @@
       <c r="E174" s="9"/>
       <c r="F174" s="11"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="9"/>
       <c r="B175" s="10"/>
       <c r="C175" s="9"/>
@@ -2320,7 +2325,7 @@
       <c r="E175" s="9"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="9"/>
       <c r="B176" s="10"/>
       <c r="C176" s="9"/>
@@ -2328,7 +2333,7 @@
       <c r="E176" s="9"/>
       <c r="F176" s="11"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="9"/>
       <c r="B177" s="10"/>
       <c r="C177" s="9"/>
@@ -2336,7 +2341,7 @@
       <c r="E177" s="9"/>
       <c r="F177" s="11"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="9"/>
       <c r="B178" s="10"/>
       <c r="C178" s="9"/>
@@ -2344,7 +2349,7 @@
       <c r="E178" s="9"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="9"/>
       <c r="B179" s="10"/>
       <c r="C179" s="9"/>
@@ -2352,7 +2357,7 @@
       <c r="E179" s="9"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="9"/>
       <c r="B180" s="10"/>
       <c r="C180" s="9"/>
@@ -2360,7 +2365,7 @@
       <c r="E180" s="9"/>
       <c r="F180" s="11"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="9"/>
       <c r="B181" s="10"/>
       <c r="C181" s="9"/>
@@ -2368,7 +2373,7 @@
       <c r="E181" s="9"/>
       <c r="F181" s="11"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="9"/>
       <c r="B182" s="10"/>
       <c r="C182" s="9"/>
@@ -2376,7 +2381,7 @@
       <c r="E182" s="9"/>
       <c r="F182" s="11"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="9"/>
       <c r="B183" s="10"/>
       <c r="C183" s="9"/>
@@ -2384,7 +2389,7 @@
       <c r="E183" s="9"/>
       <c r="F183" s="11"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="9"/>
       <c r="B184" s="10"/>
       <c r="C184" s="9"/>
@@ -2392,7 +2397,7 @@
       <c r="E184" s="9"/>
       <c r="F184" s="11"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="9"/>
       <c r="B185" s="10"/>
       <c r="C185" s="9"/>
@@ -2400,7 +2405,7 @@
       <c r="E185" s="9"/>
       <c r="F185" s="11"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="9"/>
       <c r="B186" s="10"/>
       <c r="C186" s="9"/>
@@ -2408,7 +2413,7 @@
       <c r="E186" s="9"/>
       <c r="F186" s="11"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="9"/>
       <c r="B187" s="10"/>
       <c r="C187" s="9"/>
@@ -2416,7 +2421,7 @@
       <c r="E187" s="9"/>
       <c r="F187" s="11"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="9"/>
       <c r="B188" s="10"/>
       <c r="C188" s="9"/>
@@ -2424,7 +2429,7 @@
       <c r="E188" s="9"/>
       <c r="F188" s="11"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="9"/>
       <c r="B189" s="10"/>
       <c r="C189" s="9"/>
@@ -2432,7 +2437,7 @@
       <c r="E189" s="9"/>
       <c r="F189" s="11"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="9"/>
       <c r="B190" s="10"/>
       <c r="C190" s="9"/>
@@ -2440,7 +2445,7 @@
       <c r="E190" s="9"/>
       <c r="F190" s="11"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="9"/>
       <c r="B191" s="10"/>
       <c r="C191" s="9"/>
@@ -2448,7 +2453,7 @@
       <c r="E191" s="9"/>
       <c r="F191" s="11"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="9"/>
       <c r="B192" s="10"/>
       <c r="C192" s="9"/>
@@ -2456,7 +2461,7 @@
       <c r="E192" s="9"/>
       <c r="F192" s="11"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="9"/>
       <c r="B193" s="10"/>
       <c r="C193" s="9"/>
@@ -2464,7 +2469,7 @@
       <c r="E193" s="9"/>
       <c r="F193" s="11"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="9"/>
       <c r="B194" s="10"/>
       <c r="C194" s="9"/>
@@ -2472,7 +2477,7 @@
       <c r="E194" s="9"/>
       <c r="F194" s="11"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="9"/>
       <c r="B195" s="10"/>
       <c r="C195" s="9"/>
@@ -2480,7 +2485,7 @@
       <c r="E195" s="9"/>
       <c r="F195" s="11"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="9"/>
       <c r="B196" s="10"/>
       <c r="C196" s="9"/>
@@ -2488,7 +2493,7 @@
       <c r="E196" s="9"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="9"/>
       <c r="B197" s="10"/>
       <c r="C197" s="9"/>
@@ -2496,7 +2501,7 @@
       <c r="E197" s="9"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="9"/>
       <c r="B198" s="10"/>
       <c r="C198" s="9"/>
@@ -2504,7 +2509,7 @@
       <c r="E198" s="9"/>
       <c r="F198" s="11"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="9"/>
       <c r="B199" s="10"/>
       <c r="C199" s="9"/>
@@ -2512,7 +2517,7 @@
       <c r="E199" s="9"/>
       <c r="F199" s="11"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="9"/>
       <c r="B200" s="10"/>
       <c r="C200" s="9"/>
@@ -2520,7 +2525,7 @@
       <c r="E200" s="9"/>
       <c r="F200" s="11"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="9"/>
       <c r="B201" s="10"/>
       <c r="C201" s="9"/>
@@ -2528,7 +2533,7 @@
       <c r="E201" s="9"/>
       <c r="F201" s="11"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="9"/>
       <c r="B202" s="10"/>
       <c r="C202" s="9"/>
@@ -2536,7 +2541,7 @@
       <c r="E202" s="9"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="9"/>
       <c r="B203" s="10"/>
       <c r="C203" s="9"/>
@@ -2544,7 +2549,7 @@
       <c r="E203" s="9"/>
       <c r="F203" s="11"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="9"/>
       <c r="B204" s="10"/>
       <c r="C204" s="9"/>
@@ -2552,7 +2557,7 @@
       <c r="E204" s="9"/>
       <c r="F204" s="11"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="9"/>
       <c r="B205" s="10"/>
       <c r="C205" s="9"/>
@@ -2560,7 +2565,7 @@
       <c r="E205" s="9"/>
       <c r="F205" s="11"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="9"/>
       <c r="B206" s="10"/>
       <c r="C206" s="9"/>
@@ -2568,7 +2573,7 @@
       <c r="E206" s="9"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="9"/>
       <c r="B207" s="10"/>
       <c r="C207" s="9"/>
@@ -2576,7 +2581,7 @@
       <c r="E207" s="9"/>
       <c r="F207" s="11"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="9"/>
       <c r="B208" s="10"/>
       <c r="C208" s="9"/>
@@ -2584,7 +2589,7 @@
       <c r="E208" s="9"/>
       <c r="F208" s="11"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="9"/>
       <c r="B209" s="10"/>
       <c r="C209" s="9"/>
@@ -2592,7 +2597,7 @@
       <c r="E209" s="9"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="9"/>
       <c r="B210" s="10"/>
       <c r="C210" s="9"/>
@@ -2600,7 +2605,7 @@
       <c r="E210" s="9"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="9"/>
       <c r="B211" s="10"/>
       <c r="C211" s="9"/>
@@ -2608,7 +2613,7 @@
       <c r="E211" s="9"/>
       <c r="F211" s="11"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="9"/>
       <c r="B212" s="10"/>
       <c r="C212" s="9"/>
@@ -2616,7 +2621,7 @@
       <c r="E212" s="9"/>
       <c r="F212" s="11"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="9"/>
       <c r="B213" s="10"/>
       <c r="C213" s="9"/>
@@ -2624,7 +2629,7 @@
       <c r="E213" s="9"/>
       <c r="F213" s="11"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="9"/>
       <c r="B214" s="10"/>
       <c r="C214" s="9"/>
@@ -2632,7 +2637,7 @@
       <c r="E214" s="9"/>
       <c r="F214" s="11"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="9"/>
       <c r="B215" s="10"/>
       <c r="C215" s="9"/>
@@ -2640,7 +2645,7 @@
       <c r="E215" s="9"/>
       <c r="F215" s="11"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="9"/>
       <c r="B216" s="10"/>
       <c r="C216" s="9"/>
@@ -2648,7 +2653,7 @@
       <c r="E216" s="9"/>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="9"/>
       <c r="B217" s="10"/>
       <c r="C217" s="9"/>
@@ -2656,7 +2661,7 @@
       <c r="E217" s="9"/>
       <c r="F217" s="11"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="9"/>
       <c r="B218" s="10"/>
       <c r="C218" s="9"/>
@@ -2664,7 +2669,7 @@
       <c r="E218" s="9"/>
       <c r="F218" s="11"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="9"/>
       <c r="B219" s="10"/>
       <c r="C219" s="9"/>
@@ -2672,7 +2677,7 @@
       <c r="E219" s="9"/>
       <c r="F219" s="11"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="9"/>
       <c r="B220" s="10"/>
       <c r="C220" s="9"/>
@@ -2680,7 +2685,7 @@
       <c r="E220" s="9"/>
       <c r="F220" s="11"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="9"/>
       <c r="B221" s="10"/>
       <c r="C221" s="9"/>
@@ -2688,7 +2693,7 @@
       <c r="E221" s="9"/>
       <c r="F221" s="11"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="9"/>
       <c r="B222" s="10"/>
       <c r="C222" s="9"/>
@@ -2696,7 +2701,7 @@
       <c r="E222" s="9"/>
       <c r="F222" s="11"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="9"/>
       <c r="B223" s="10"/>
       <c r="C223" s="9"/>
@@ -2704,7 +2709,7 @@
       <c r="E223" s="9"/>
       <c r="F223" s="11"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="9"/>
       <c r="B224" s="10"/>
       <c r="C224" s="9"/>
@@ -2712,7 +2717,7 @@
       <c r="E224" s="9"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="9"/>
       <c r="B225" s="10"/>
       <c r="C225" s="9"/>
@@ -2720,7 +2725,7 @@
       <c r="E225" s="9"/>
       <c r="F225" s="11"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="9"/>
       <c r="B226" s="10"/>
       <c r="C226" s="9"/>
@@ -2728,7 +2733,7 @@
       <c r="E226" s="9"/>
       <c r="F226" s="11"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="9"/>
       <c r="B227" s="10"/>
       <c r="C227" s="9"/>
@@ -2736,7 +2741,7 @@
       <c r="E227" s="9"/>
       <c r="F227" s="11"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="9"/>
       <c r="B228" s="10"/>
       <c r="C228" s="9"/>
@@ -2744,7 +2749,7 @@
       <c r="E228" s="9"/>
       <c r="F228" s="11"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="9"/>
       <c r="B229" s="10"/>
       <c r="C229" s="9"/>
@@ -2752,7 +2757,7 @@
       <c r="E229" s="9"/>
       <c r="F229" s="11"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="9"/>
       <c r="B230" s="10"/>
       <c r="C230" s="9"/>
@@ -2760,7 +2765,7 @@
       <c r="E230" s="9"/>
       <c r="F230" s="11"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="9"/>
       <c r="B231" s="10"/>
       <c r="C231" s="9"/>
@@ -2768,7 +2773,7 @@
       <c r="E231" s="9"/>
       <c r="F231" s="11"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="9"/>
       <c r="B232" s="10"/>
       <c r="C232" s="9"/>
@@ -2776,7 +2781,7 @@
       <c r="E232" s="9"/>
       <c r="F232" s="11"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="9"/>
       <c r="B233" s="10"/>
       <c r="C233" s="9"/>
@@ -2784,7 +2789,7 @@
       <c r="E233" s="9"/>
       <c r="F233" s="11"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="9"/>
       <c r="B234" s="10"/>
       <c r="C234" s="9"/>
@@ -2792,7 +2797,7 @@
       <c r="E234" s="9"/>
       <c r="F234" s="11"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="9"/>
       <c r="B235" s="10"/>
       <c r="C235" s="9"/>
@@ -2800,7 +2805,7 @@
       <c r="E235" s="9"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="9"/>
       <c r="B236" s="10"/>
       <c r="C236" s="9"/>
@@ -2808,7 +2813,7 @@
       <c r="E236" s="9"/>
       <c r="F236" s="11"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="9"/>
       <c r="B237" s="10"/>
       <c r="C237" s="9"/>
@@ -2816,7 +2821,7 @@
       <c r="E237" s="9"/>
       <c r="F237" s="11"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="9"/>
       <c r="B238" s="10"/>
       <c r="C238" s="9"/>
@@ -2824,7 +2829,7 @@
       <c r="E238" s="9"/>
       <c r="F238" s="11"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="9"/>
       <c r="B239" s="10"/>
       <c r="C239" s="9"/>
@@ -2832,7 +2837,7 @@
       <c r="E239" s="9"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="9"/>
       <c r="B240" s="10"/>
       <c r="C240" s="9"/>
@@ -2840,7 +2845,7 @@
       <c r="E240" s="9"/>
       <c r="F240" s="11"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="9"/>
       <c r="B241" s="10"/>
       <c r="C241" s="9"/>
@@ -2848,7 +2853,7 @@
       <c r="E241" s="9"/>
       <c r="F241" s="11"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="9"/>
       <c r="B242" s="10"/>
       <c r="C242" s="9"/>
@@ -2856,7 +2861,7 @@
       <c r="E242" s="9"/>
       <c r="F242" s="11"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="9"/>
       <c r="B243" s="10"/>
       <c r="C243" s="9"/>
@@ -2864,7 +2869,7 @@
       <c r="E243" s="9"/>
       <c r="F243" s="11"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="9"/>
       <c r="B244" s="10"/>
       <c r="C244" s="9"/>
@@ -2872,7 +2877,7 @@
       <c r="E244" s="9"/>
       <c r="F244" s="11"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="9"/>
       <c r="B245" s="10"/>
       <c r="C245" s="9"/>
@@ -2880,7 +2885,7 @@
       <c r="E245" s="9"/>
       <c r="F245" s="11"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="9"/>
       <c r="B246" s="10"/>
       <c r="C246" s="9"/>
@@ -2888,7 +2893,7 @@
       <c r="E246" s="9"/>
       <c r="F246" s="11"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="9"/>
       <c r="B247" s="10"/>
       <c r="C247" s="9"/>
@@ -2896,7 +2901,7 @@
       <c r="E247" s="9"/>
       <c r="F247" s="11"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="9"/>
       <c r="B248" s="10"/>
       <c r="C248" s="9"/>
@@ -2904,7 +2909,7 @@
       <c r="E248" s="9"/>
       <c r="F248" s="11"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="9"/>
       <c r="B249" s="10"/>
       <c r="C249" s="9"/>
@@ -2912,7 +2917,7 @@
       <c r="E249" s="9"/>
       <c r="F249" s="11"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="9"/>
       <c r="B250" s="10"/>
       <c r="C250" s="9"/>
@@ -2920,7 +2925,7 @@
       <c r="E250" s="9"/>
       <c r="F250" s="11"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="9"/>
       <c r="B251" s="10"/>
       <c r="C251" s="9"/>
@@ -2928,7 +2933,7 @@
       <c r="E251" s="9"/>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="9"/>
       <c r="B252" s="10"/>
       <c r="C252" s="9"/>
@@ -2936,7 +2941,7 @@
       <c r="E252" s="9"/>
       <c r="F252" s="11"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="9"/>
       <c r="B253" s="10"/>
       <c r="C253" s="9"/>
@@ -2944,7 +2949,7 @@
       <c r="E253" s="9"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="9"/>
       <c r="B254" s="10"/>
       <c r="C254" s="9"/>
@@ -2952,7 +2957,7 @@
       <c r="E254" s="9"/>
       <c r="F254" s="11"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="9"/>
       <c r="B255" s="10"/>
       <c r="C255" s="9"/>
@@ -2960,7 +2965,7 @@
       <c r="E255" s="9"/>
       <c r="F255" s="11"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="9"/>
       <c r="B256" s="10"/>
       <c r="C256" s="9"/>
@@ -2968,7 +2973,7 @@
       <c r="E256" s="9"/>
       <c r="F256" s="11"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="9"/>
       <c r="B257" s="10"/>
       <c r="C257" s="9"/>
@@ -2976,7 +2981,7 @@
       <c r="E257" s="9"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="9"/>
       <c r="B258" s="10"/>
       <c r="C258" s="9"/>
@@ -2984,7 +2989,7 @@
       <c r="E258" s="9"/>
       <c r="F258" s="11"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="9"/>
       <c r="B259" s="10"/>
       <c r="C259" s="9"/>
@@ -2992,7 +2997,7 @@
       <c r="E259" s="9"/>
       <c r="F259" s="11"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="9"/>
       <c r="B260" s="10"/>
       <c r="C260" s="9"/>
@@ -3000,7 +3005,7 @@
       <c r="E260" s="9"/>
       <c r="F260" s="11"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="9"/>
       <c r="B261" s="10"/>
       <c r="C261" s="9"/>
@@ -3008,7 +3013,7 @@
       <c r="E261" s="9"/>
       <c r="F261" s="11"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="9"/>
       <c r="B262" s="10"/>
       <c r="C262" s="9"/>
@@ -3016,7 +3021,7 @@
       <c r="E262" s="9"/>
       <c r="F262" s="11"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="9"/>
       <c r="B263" s="10"/>
       <c r="C263" s="9"/>
@@ -3024,7 +3029,7 @@
       <c r="E263" s="9"/>
       <c r="F263" s="11"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="9"/>
       <c r="B264" s="10"/>
       <c r="C264" s="9"/>
@@ -3032,7 +3037,7 @@
       <c r="E264" s="9"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="9"/>
       <c r="B265" s="10"/>
       <c r="C265" s="9"/>
@@ -3040,7 +3045,7 @@
       <c r="E265" s="9"/>
       <c r="F265" s="11"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="9"/>
       <c r="B266" s="10"/>
       <c r="C266" s="9"/>
@@ -3048,7 +3053,7 @@
       <c r="E266" s="9"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="9"/>
       <c r="B267" s="10"/>
       <c r="C267" s="9"/>
@@ -3056,7 +3061,7 @@
       <c r="E267" s="9"/>
       <c r="F267" s="11"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="9"/>
       <c r="B268" s="10"/>
       <c r="C268" s="9"/>
@@ -3064,7 +3069,7 @@
       <c r="E268" s="9"/>
       <c r="F268" s="11"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="9"/>
       <c r="B269" s="10"/>
       <c r="C269" s="9"/>
@@ -3072,7 +3077,7 @@
       <c r="E269" s="9"/>
       <c r="F269" s="11"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="9"/>
       <c r="B270" s="10"/>
       <c r="C270" s="9"/>
@@ -3080,7 +3085,7 @@
       <c r="E270" s="9"/>
       <c r="F270" s="11"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="9"/>
       <c r="B271" s="10"/>
       <c r="C271" s="9"/>
@@ -3088,7 +3093,7 @@
       <c r="E271" s="9"/>
       <c r="F271" s="11"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="9"/>
       <c r="B272" s="10"/>
       <c r="C272" s="9"/>
@@ -3096,7 +3101,7 @@
       <c r="E272" s="9"/>
       <c r="F272" s="11"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="9"/>
       <c r="B273" s="10"/>
       <c r="C273" s="9"/>
@@ -3104,7 +3109,7 @@
       <c r="E273" s="9"/>
       <c r="F273" s="11"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="9"/>
       <c r="B274" s="10"/>
       <c r="C274" s="9"/>
@@ -3112,7 +3117,7 @@
       <c r="E274" s="9"/>
       <c r="F274" s="11"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="9"/>
       <c r="B275" s="10"/>
       <c r="C275" s="9"/>
@@ -3120,7 +3125,7 @@
       <c r="E275" s="9"/>
       <c r="F275" s="11"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="9"/>
       <c r="B276" s="10"/>
       <c r="C276" s="9"/>
@@ -3128,7 +3133,7 @@
       <c r="E276" s="9"/>
       <c r="F276" s="11"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="9"/>
       <c r="B277" s="10"/>
       <c r="C277" s="9"/>
@@ -3136,7 +3141,7 @@
       <c r="E277" s="9"/>
       <c r="F277" s="11"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="9"/>
       <c r="B278" s="10"/>
       <c r="C278" s="9"/>
@@ -3144,7 +3149,7 @@
       <c r="E278" s="9"/>
       <c r="F278" s="11"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="9"/>
       <c r="B279" s="10"/>
       <c r="C279" s="9"/>
@@ -3152,7 +3157,7 @@
       <c r="E279" s="9"/>
       <c r="F279" s="11"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="9"/>
       <c r="B280" s="10"/>
       <c r="C280" s="9"/>
@@ -3160,7 +3165,7 @@
       <c r="E280" s="9"/>
       <c r="F280" s="11"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="9"/>
       <c r="B281" s="10"/>
       <c r="C281" s="9"/>
@@ -3168,7 +3173,7 @@
       <c r="E281" s="9"/>
       <c r="F281" s="11"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="9"/>
       <c r="B282" s="10"/>
       <c r="C282" s="9"/>
@@ -3176,7 +3181,7 @@
       <c r="E282" s="9"/>
       <c r="F282" s="11"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="9"/>
       <c r="B283" s="10"/>
       <c r="C283" s="9"/>
@@ -3184,7 +3189,7 @@
       <c r="E283" s="9"/>
       <c r="F283" s="11"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="9"/>
       <c r="B284" s="10"/>
       <c r="C284" s="9"/>
@@ -3192,7 +3197,7 @@
       <c r="E284" s="9"/>
       <c r="F284" s="11"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="9"/>
       <c r="B285" s="10"/>
       <c r="C285" s="9"/>
@@ -3200,7 +3205,7 @@
       <c r="E285" s="9"/>
       <c r="F285" s="11"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="9"/>
       <c r="B286" s="10"/>
       <c r="C286" s="9"/>
@@ -3208,7 +3213,7 @@
       <c r="E286" s="9"/>
       <c r="F286" s="11"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="9"/>
       <c r="B287" s="10"/>
       <c r="C287" s="9"/>
@@ -3216,7 +3221,7 @@
       <c r="E287" s="9"/>
       <c r="F287" s="11"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="9"/>
       <c r="B288" s="10"/>
       <c r="C288" s="9"/>
@@ -3224,7 +3229,7 @@
       <c r="E288" s="9"/>
       <c r="F288" s="11"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="9"/>
       <c r="B289" s="10"/>
       <c r="C289" s="9"/>
@@ -3232,7 +3237,7 @@
       <c r="E289" s="9"/>
       <c r="F289" s="11"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="9"/>
       <c r="B290" s="10"/>
       <c r="C290" s="9"/>
@@ -3240,7 +3245,7 @@
       <c r="E290" s="9"/>
       <c r="F290" s="11"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="9"/>
       <c r="B291" s="10"/>
       <c r="C291" s="9"/>
@@ -3248,7 +3253,7 @@
       <c r="E291" s="9"/>
       <c r="F291" s="11"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="9"/>
       <c r="B292" s="10"/>
       <c r="C292" s="9"/>
@@ -3256,7 +3261,7 @@
       <c r="E292" s="9"/>
       <c r="F292" s="11"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="9"/>
       <c r="B293" s="10"/>
       <c r="C293" s="9"/>
@@ -3264,7 +3269,7 @@
       <c r="E293" s="9"/>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="9"/>
       <c r="B294" s="10"/>
       <c r="C294" s="9"/>
@@ -3272,7 +3277,7 @@
       <c r="E294" s="9"/>
       <c r="F294" s="11"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="9"/>
       <c r="B295" s="10"/>
       <c r="C295" s="9"/>
@@ -3280,7 +3285,7 @@
       <c r="E295" s="9"/>
       <c r="F295" s="11"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="9"/>
       <c r="B296" s="10"/>
       <c r="C296" s="9"/>
@@ -3288,7 +3293,7 @@
       <c r="E296" s="9"/>
       <c r="F296" s="11"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="9"/>
       <c r="B297" s="10"/>
       <c r="C297" s="9"/>
@@ -3296,7 +3301,7 @@
       <c r="E297" s="9"/>
       <c r="F297" s="11"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="9"/>
       <c r="B298" s="10"/>
       <c r="C298" s="9"/>
@@ -3304,7 +3309,7 @@
       <c r="E298" s="9"/>
       <c r="F298" s="11"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="9"/>
       <c r="B299" s="10"/>
       <c r="C299" s="9"/>
@@ -3312,7 +3317,7 @@
       <c r="E299" s="9"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="9"/>
       <c r="B300" s="10"/>
       <c r="C300" s="9"/>
@@ -3320,7 +3325,7 @@
       <c r="E300" s="9"/>
       <c r="F300" s="11"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="9"/>
       <c r="B301" s="10"/>
       <c r="C301" s="9"/>
@@ -3328,7 +3333,7 @@
       <c r="E301" s="9"/>
       <c r="F301" s="11"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="9"/>
       <c r="B302" s="10"/>
       <c r="C302" s="9"/>
@@ -3336,7 +3341,7 @@
       <c r="E302" s="9"/>
       <c r="F302" s="11"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="9"/>
       <c r="B303" s="10"/>
       <c r="C303" s="9"/>
@@ -3344,7 +3349,7 @@
       <c r="E303" s="9"/>
       <c r="F303" s="11"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="9"/>
       <c r="B304" s="10"/>
       <c r="C304" s="9"/>
@@ -3352,7 +3357,7 @@
       <c r="E304" s="9"/>
       <c r="F304" s="11"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="9"/>
       <c r="B305" s="10"/>
       <c r="C305" s="9"/>
@@ -3360,7 +3365,7 @@
       <c r="E305" s="9"/>
       <c r="F305" s="11"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="9"/>
       <c r="B306" s="10"/>
       <c r="C306" s="9"/>
@@ -3368,7 +3373,7 @@
       <c r="E306" s="9"/>
       <c r="F306" s="11"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="9"/>
       <c r="B307" s="10"/>
       <c r="C307" s="9"/>
@@ -3376,7 +3381,7 @@
       <c r="E307" s="9"/>
       <c r="F307" s="11"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="9"/>
       <c r="B308" s="10"/>
       <c r="C308" s="9"/>
@@ -3384,7 +3389,7 @@
       <c r="E308" s="9"/>
       <c r="F308" s="11"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="9"/>
       <c r="B309" s="10"/>
       <c r="C309" s="9"/>
@@ -3392,7 +3397,7 @@
       <c r="E309" s="9"/>
       <c r="F309" s="11"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="9"/>
       <c r="B310" s="10"/>
       <c r="C310" s="9"/>
@@ -3400,7 +3405,7 @@
       <c r="E310" s="9"/>
       <c r="F310" s="11"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="9"/>
       <c r="B311" s="10"/>
       <c r="C311" s="9"/>
@@ -3408,7 +3413,7 @@
       <c r="E311" s="9"/>
       <c r="F311" s="11"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="9"/>
       <c r="B312" s="10"/>
       <c r="C312" s="9"/>
@@ -3416,7 +3421,7 @@
       <c r="E312" s="9"/>
       <c r="F312" s="11"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="9"/>
       <c r="B313" s="10"/>
       <c r="C313" s="9"/>
@@ -3424,7 +3429,7 @@
       <c r="E313" s="9"/>
       <c r="F313" s="11"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="9"/>
       <c r="B314" s="10"/>
       <c r="C314" s="9"/>
@@ -3432,7 +3437,7 @@
       <c r="E314" s="9"/>
       <c r="F314" s="11"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="9"/>
       <c r="B315" s="10"/>
       <c r="C315" s="9"/>
@@ -3440,7 +3445,7 @@
       <c r="E315" s="9"/>
       <c r="F315" s="11"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="9"/>
       <c r="B316" s="10"/>
       <c r="C316" s="9"/>
@@ -3448,7 +3453,7 @@
       <c r="E316" s="9"/>
       <c r="F316" s="11"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="9"/>
       <c r="B317" s="10"/>
       <c r="C317" s="9"/>
@@ -3456,7 +3461,7 @@
       <c r="E317" s="9"/>
       <c r="F317" s="11"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="9"/>
       <c r="B318" s="10"/>
       <c r="C318" s="9"/>
@@ -3464,7 +3469,7 @@
       <c r="E318" s="9"/>
       <c r="F318" s="11"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="9"/>
       <c r="B319" s="10"/>
       <c r="C319" s="9"/>
@@ -3472,7 +3477,7 @@
       <c r="E319" s="9"/>
       <c r="F319" s="11"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="9"/>
       <c r="B320" s="10"/>
       <c r="C320" s="9"/>
@@ -3480,7 +3485,7 @@
       <c r="E320" s="9"/>
       <c r="F320" s="11"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="9"/>
       <c r="B321" s="10"/>
       <c r="C321" s="9"/>
@@ -3488,7 +3493,7 @@
       <c r="E321" s="9"/>
       <c r="F321" s="11"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="9"/>
       <c r="B322" s="10"/>
       <c r="C322" s="9"/>
@@ -3496,7 +3501,7 @@
       <c r="E322" s="9"/>
       <c r="F322" s="11"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="9"/>
       <c r="B323" s="10"/>
       <c r="C323" s="9"/>
@@ -3504,7 +3509,7 @@
       <c r="E323" s="9"/>
       <c r="F323" s="11"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="9"/>
       <c r="B324" s="10"/>
       <c r="C324" s="9"/>
@@ -3512,7 +3517,7 @@
       <c r="E324" s="9"/>
       <c r="F324" s="11"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="9"/>
       <c r="B325" s="10"/>
       <c r="C325" s="9"/>
@@ -3520,7 +3525,7 @@
       <c r="E325" s="9"/>
       <c r="F325" s="11"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="9"/>
       <c r="B326" s="10"/>
       <c r="C326" s="9"/>
@@ -3528,7 +3533,7 @@
       <c r="E326" s="9"/>
       <c r="F326" s="11"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="9"/>
       <c r="B327" s="10"/>
       <c r="C327" s="9"/>
@@ -3536,7 +3541,7 @@
       <c r="E327" s="9"/>
       <c r="F327" s="11"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="9"/>
       <c r="B328" s="10"/>
       <c r="C328" s="9"/>
@@ -3544,7 +3549,7 @@
       <c r="E328" s="9"/>
       <c r="F328" s="11"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="9"/>
       <c r="B329" s="10"/>
       <c r="C329" s="9"/>
@@ -3552,7 +3557,7 @@
       <c r="E329" s="9"/>
       <c r="F329" s="11"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="9"/>
       <c r="B330" s="10"/>
       <c r="C330" s="9"/>
@@ -3560,7 +3565,7 @@
       <c r="E330" s="9"/>
       <c r="F330" s="11"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="9"/>
       <c r="B331" s="10"/>
       <c r="C331" s="9"/>
@@ -3568,7 +3573,7 @@
       <c r="E331" s="9"/>
       <c r="F331" s="11"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="9"/>
       <c r="B332" s="10"/>
       <c r="C332" s="9"/>
@@ -3576,7 +3581,7 @@
       <c r="E332" s="9"/>
       <c r="F332" s="11"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="9"/>
       <c r="B333" s="10"/>
       <c r="C333" s="9"/>
@@ -3584,7 +3589,7 @@
       <c r="E333" s="9"/>
       <c r="F333" s="11"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="9"/>
       <c r="B334" s="10"/>
       <c r="C334" s="9"/>
@@ -3592,7 +3597,7 @@
       <c r="E334" s="9"/>
       <c r="F334" s="11"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="9"/>
       <c r="B335" s="10"/>
       <c r="C335" s="9"/>
@@ -3600,7 +3605,7 @@
       <c r="E335" s="9"/>
       <c r="F335" s="11"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="9"/>
       <c r="B336" s="10"/>
       <c r="C336" s="9"/>
@@ -3608,7 +3613,7 @@
       <c r="E336" s="9"/>
       <c r="F336" s="11"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="9"/>
       <c r="B337" s="10"/>
       <c r="C337" s="9"/>
@@ -3616,7 +3621,7 @@
       <c r="E337" s="9"/>
       <c r="F337" s="11"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="9"/>
       <c r="B338" s="10"/>
       <c r="C338" s="9"/>
@@ -3624,7 +3629,7 @@
       <c r="E338" s="9"/>
       <c r="F338" s="11"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="9"/>
       <c r="B339" s="10"/>
       <c r="C339" s="9"/>
@@ -3632,7 +3637,7 @@
       <c r="E339" s="9"/>
       <c r="F339" s="11"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="9"/>
       <c r="B340" s="10"/>
       <c r="C340" s="9"/>
@@ -3640,7 +3645,7 @@
       <c r="E340" s="9"/>
       <c r="F340" s="11"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="9"/>
       <c r="B341" s="10"/>
       <c r="C341" s="9"/>
@@ -3648,7 +3653,7 @@
       <c r="E341" s="9"/>
       <c r="F341" s="11"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="9"/>
       <c r="B342" s="10"/>
       <c r="C342" s="9"/>
@@ -3656,7 +3661,7 @@
       <c r="E342" s="9"/>
       <c r="F342" s="11"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="9"/>
       <c r="B343" s="10"/>
       <c r="C343" s="9"/>
@@ -3664,7 +3669,7 @@
       <c r="E343" s="9"/>
       <c r="F343" s="11"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="9"/>
       <c r="B344" s="10"/>
       <c r="C344" s="9"/>
@@ -3672,7 +3677,7 @@
       <c r="E344" s="9"/>
       <c r="F344" s="11"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="9"/>
       <c r="B345" s="10"/>
       <c r="C345" s="9"/>
@@ -3680,7 +3685,7 @@
       <c r="E345" s="9"/>
       <c r="F345" s="11"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="9"/>
       <c r="B346" s="10"/>
       <c r="C346" s="9"/>
@@ -3688,7 +3693,7 @@
       <c r="E346" s="9"/>
       <c r="F346" s="11"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="9"/>
       <c r="B347" s="10"/>
       <c r="C347" s="9"/>
@@ -3696,7 +3701,7 @@
       <c r="E347" s="9"/>
       <c r="F347" s="11"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="9"/>
       <c r="B348" s="10"/>
       <c r="C348" s="9"/>
@@ -3704,7 +3709,7 @@
       <c r="E348" s="9"/>
       <c r="F348" s="11"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="9"/>
       <c r="B349" s="10"/>
       <c r="C349" s="9"/>
@@ -3712,7 +3717,7 @@
       <c r="E349" s="9"/>
       <c r="F349" s="11"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="9"/>
       <c r="B350" s="10"/>
       <c r="C350" s="9"/>
@@ -3720,7 +3725,7 @@
       <c r="E350" s="9"/>
       <c r="F350" s="11"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="9"/>
       <c r="B351" s="10"/>
       <c r="C351" s="9"/>
@@ -3728,7 +3733,7 @@
       <c r="E351" s="9"/>
       <c r="F351" s="11"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="9"/>
       <c r="B352" s="10"/>
       <c r="C352" s="9"/>
@@ -3736,7 +3741,7 @@
       <c r="E352" s="9"/>
       <c r="F352" s="11"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="9"/>
       <c r="B353" s="10"/>
       <c r="C353" s="9"/>
@@ -3744,7 +3749,7 @@
       <c r="E353" s="9"/>
       <c r="F353" s="11"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="9"/>
       <c r="B354" s="10"/>
       <c r="C354" s="9"/>
@@ -3752,7 +3757,7 @@
       <c r="E354" s="9"/>
       <c r="F354" s="11"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="9"/>
       <c r="B355" s="10"/>
       <c r="C355" s="9"/>
@@ -3760,7 +3765,7 @@
       <c r="E355" s="9"/>
       <c r="F355" s="11"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="9"/>
       <c r="B356" s="10"/>
       <c r="C356" s="9"/>
@@ -3768,7 +3773,7 @@
       <c r="E356" s="9"/>
       <c r="F356" s="11"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="9"/>
       <c r="B357" s="10"/>
       <c r="C357" s="9"/>
@@ -3776,7 +3781,7 @@
       <c r="E357" s="9"/>
       <c r="F357" s="11"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="9"/>
       <c r="B358" s="10"/>
       <c r="C358" s="9"/>
@@ -3784,7 +3789,7 @@
       <c r="E358" s="9"/>
       <c r="F358" s="11"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="9"/>
       <c r="B359" s="10"/>
       <c r="C359" s="9"/>
@@ -3792,7 +3797,7 @@
       <c r="E359" s="9"/>
       <c r="F359" s="11"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="9"/>
       <c r="B360" s="10"/>
       <c r="C360" s="9"/>
@@ -3800,7 +3805,7 @@
       <c r="E360" s="9"/>
       <c r="F360" s="11"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="9"/>
       <c r="B361" s="10"/>
       <c r="C361" s="9"/>
@@ -3808,7 +3813,7 @@
       <c r="E361" s="9"/>
       <c r="F361" s="11"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="9"/>
       <c r="B362" s="10"/>
       <c r="C362" s="9"/>
@@ -3816,7 +3821,7 @@
       <c r="E362" s="9"/>
       <c r="F362" s="11"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="9"/>
       <c r="B363" s="10"/>
       <c r="C363" s="9"/>
@@ -3824,7 +3829,7 @@
       <c r="E363" s="9"/>
       <c r="F363" s="11"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="9"/>
       <c r="B364" s="10"/>
       <c r="C364" s="9"/>
@@ -3832,7 +3837,7 @@
       <c r="E364" s="9"/>
       <c r="F364" s="11"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="9"/>
       <c r="B365" s="10"/>
       <c r="C365" s="9"/>
@@ -3840,7 +3845,7 @@
       <c r="E365" s="9"/>
       <c r="F365" s="11"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="9"/>
       <c r="B366" s="10"/>
       <c r="C366" s="9"/>
@@ -3848,7 +3853,7 @@
       <c r="E366" s="9"/>
       <c r="F366" s="11"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="9"/>
       <c r="B367" s="10"/>
       <c r="C367" s="9"/>
@@ -3856,7 +3861,7 @@
       <c r="E367" s="9"/>
       <c r="F367" s="11"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="9"/>
       <c r="B368" s="10"/>
       <c r="C368" s="9"/>
@@ -3864,7 +3869,7 @@
       <c r="E368" s="9"/>
       <c r="F368" s="11"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="9"/>
       <c r="B369" s="10"/>
       <c r="C369" s="9"/>
@@ -3872,7 +3877,7 @@
       <c r="E369" s="9"/>
       <c r="F369" s="11"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="9"/>
       <c r="B370" s="10"/>
       <c r="C370" s="9"/>
@@ -3880,7 +3885,7 @@
       <c r="E370" s="9"/>
       <c r="F370" s="11"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="9"/>
       <c r="B371" s="10"/>
       <c r="C371" s="9"/>
@@ -3888,7 +3893,7 @@
       <c r="E371" s="9"/>
       <c r="F371" s="11"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="9"/>
       <c r="B372" s="10"/>
       <c r="C372" s="9"/>
@@ -3896,7 +3901,7 @@
       <c r="E372" s="9"/>
       <c r="F372" s="11"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="9"/>
       <c r="B373" s="10"/>
       <c r="C373" s="9"/>
@@ -3904,7 +3909,7 @@
       <c r="E373" s="9"/>
       <c r="F373" s="11"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="9"/>
       <c r="B374" s="10"/>
       <c r="C374" s="9"/>
@@ -3912,7 +3917,7 @@
       <c r="E374" s="9"/>
       <c r="F374" s="11"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="9"/>
       <c r="B375" s="10"/>
       <c r="C375" s="9"/>
@@ -3920,7 +3925,7 @@
       <c r="E375" s="9"/>
       <c r="F375" s="11"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="9"/>
       <c r="B376" s="10"/>
       <c r="C376" s="9"/>
@@ -3928,7 +3933,7 @@
       <c r="E376" s="9"/>
       <c r="F376" s="11"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="9"/>
       <c r="B377" s="10"/>
       <c r="C377" s="9"/>
@@ -3936,7 +3941,7 @@
       <c r="E377" s="9"/>
       <c r="F377" s="11"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="9"/>
       <c r="B378" s="10"/>
       <c r="C378" s="9"/>
@@ -3944,7 +3949,7 @@
       <c r="E378" s="9"/>
       <c r="F378" s="11"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="9"/>
       <c r="B379" s="10"/>
       <c r="C379" s="9"/>
@@ -3952,7 +3957,7 @@
       <c r="E379" s="9"/>
       <c r="F379" s="11"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="9"/>
       <c r="B380" s="10"/>
       <c r="C380" s="9"/>
@@ -3960,7 +3965,7 @@
       <c r="E380" s="9"/>
       <c r="F380" s="11"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="9"/>
       <c r="B381" s="10"/>
       <c r="C381" s="9"/>
@@ -3968,7 +3973,7 @@
       <c r="E381" s="9"/>
       <c r="F381" s="11"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="9"/>
       <c r="B382" s="10"/>
       <c r="C382" s="9"/>
@@ -3976,7 +3981,7 @@
       <c r="E382" s="9"/>
       <c r="F382" s="11"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="9"/>
       <c r="B383" s="10"/>
       <c r="C383" s="9"/>
@@ -3984,7 +3989,7 @@
       <c r="E383" s="9"/>
       <c r="F383" s="11"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="9"/>
       <c r="B384" s="10"/>
       <c r="C384" s="9"/>
@@ -3992,7 +3997,7 @@
       <c r="E384" s="9"/>
       <c r="F384" s="11"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="9"/>
       <c r="B385" s="10"/>
       <c r="C385" s="9"/>
@@ -4000,7 +4005,7 @@
       <c r="E385" s="9"/>
       <c r="F385" s="11"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="9"/>
       <c r="B386" s="10"/>
       <c r="C386" s="9"/>
@@ -4008,7 +4013,7 @@
       <c r="E386" s="9"/>
       <c r="F386" s="11"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="9"/>
       <c r="B387" s="10"/>
       <c r="C387" s="9"/>
@@ -4016,7 +4021,7 @@
       <c r="E387" s="9"/>
       <c r="F387" s="11"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="9"/>
       <c r="B388" s="10"/>
       <c r="C388" s="9"/>
@@ -4024,7 +4029,7 @@
       <c r="E388" s="9"/>
       <c r="F388" s="11"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="9"/>
       <c r="B389" s="10"/>
       <c r="C389" s="9"/>
@@ -4032,7 +4037,7 @@
       <c r="E389" s="9"/>
       <c r="F389" s="11"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="9"/>
       <c r="B390" s="10"/>
       <c r="C390" s="9"/>
@@ -4040,7 +4045,7 @@
       <c r="E390" s="9"/>
       <c r="F390" s="11"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="9"/>
       <c r="B391" s="10"/>
       <c r="C391" s="9"/>
@@ -4048,7 +4053,7 @@
       <c r="E391" s="9"/>
       <c r="F391" s="11"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="9"/>
       <c r="B392" s="10"/>
       <c r="C392" s="9"/>
@@ -4056,7 +4061,7 @@
       <c r="E392" s="9"/>
       <c r="F392" s="11"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="9"/>
       <c r="B393" s="10"/>
       <c r="C393" s="9"/>
@@ -4064,7 +4069,7 @@
       <c r="E393" s="9"/>
       <c r="F393" s="11"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="9"/>
       <c r="B394" s="10"/>
       <c r="C394" s="9"/>
@@ -4072,7 +4077,7 @@
       <c r="E394" s="9"/>
       <c r="F394" s="11"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="9"/>
       <c r="B395" s="10"/>
       <c r="C395" s="9"/>
@@ -4080,7 +4085,7 @@
       <c r="E395" s="9"/>
       <c r="F395" s="11"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="9"/>
       <c r="B396" s="10"/>
       <c r="C396" s="9"/>
@@ -4088,7 +4093,7 @@
       <c r="E396" s="9"/>
       <c r="F396" s="11"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="9"/>
       <c r="B397" s="10"/>
       <c r="C397" s="9"/>
@@ -4096,7 +4101,7 @@
       <c r="E397" s="9"/>
       <c r="F397" s="11"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="9"/>
       <c r="B398" s="10"/>
       <c r="C398" s="9"/>
@@ -4104,7 +4109,7 @@
       <c r="E398" s="9"/>
       <c r="F398" s="11"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="9"/>
       <c r="B399" s="10"/>
       <c r="C399" s="9"/>
@@ -4112,7 +4117,7 @@
       <c r="E399" s="9"/>
       <c r="F399" s="11"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="9"/>
       <c r="B400" s="10"/>
       <c r="C400" s="9"/>
@@ -4120,7 +4125,7 @@
       <c r="E400" s="9"/>
       <c r="F400" s="11"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="9"/>
       <c r="B401" s="10"/>
       <c r="C401" s="9"/>
@@ -4128,7 +4133,7 @@
       <c r="E401" s="9"/>
       <c r="F401" s="11"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="9"/>
       <c r="B402" s="10"/>
       <c r="C402" s="9"/>
@@ -4136,7 +4141,7 @@
       <c r="E402" s="9"/>
       <c r="F402" s="11"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="9"/>
       <c r="B403" s="10"/>
       <c r="C403" s="9"/>
@@ -4144,7 +4149,7 @@
       <c r="E403" s="9"/>
       <c r="F403" s="11"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="9"/>
       <c r="B404" s="10"/>
       <c r="C404" s="9"/>
@@ -4152,7 +4157,7 @@
       <c r="E404" s="9"/>
       <c r="F404" s="11"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="9"/>
       <c r="B405" s="10"/>
       <c r="C405" s="9"/>
@@ -4160,7 +4165,7 @@
       <c r="E405" s="9"/>
       <c r="F405" s="11"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="9"/>
       <c r="B406" s="10"/>
       <c r="C406" s="9"/>
@@ -4168,7 +4173,7 @@
       <c r="E406" s="9"/>
       <c r="F406" s="11"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="9"/>
       <c r="B407" s="10"/>
       <c r="C407" s="9"/>
@@ -4176,7 +4181,7 @@
       <c r="E407" s="9"/>
       <c r="F407" s="11"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="9"/>
       <c r="B408" s="10"/>
       <c r="C408" s="9"/>
@@ -4184,7 +4189,7 @@
       <c r="E408" s="9"/>
       <c r="F408" s="11"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="9"/>
       <c r="B409" s="10"/>
       <c r="C409" s="9"/>
@@ -4192,7 +4197,7 @@
       <c r="E409" s="9"/>
       <c r="F409" s="11"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="9"/>
       <c r="B410" s="10"/>
       <c r="C410" s="9"/>
@@ -4200,7 +4205,7 @@
       <c r="E410" s="9"/>
       <c r="F410" s="11"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="9"/>
       <c r="B411" s="10"/>
       <c r="C411" s="9"/>
@@ -4208,7 +4213,7 @@
       <c r="E411" s="9"/>
       <c r="F411" s="11"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="9"/>
       <c r="B412" s="10"/>
       <c r="C412" s="9"/>
@@ -4216,7 +4221,7 @@
       <c r="E412" s="9"/>
       <c r="F412" s="11"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="9"/>
       <c r="B413" s="10"/>
       <c r="C413" s="9"/>
@@ -4224,7 +4229,7 @@
       <c r="E413" s="9"/>
       <c r="F413" s="11"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="9"/>
       <c r="B414" s="10"/>
       <c r="C414" s="9"/>
@@ -4232,7 +4237,7 @@
       <c r="E414" s="9"/>
       <c r="F414" s="11"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="9"/>
       <c r="B415" s="10"/>
       <c r="C415" s="9"/>
@@ -4240,7 +4245,7 @@
       <c r="E415" s="9"/>
       <c r="F415" s="11"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="9"/>
       <c r="B416" s="10"/>
       <c r="C416" s="9"/>
@@ -4248,7 +4253,7 @@
       <c r="E416" s="9"/>
       <c r="F416" s="11"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="9"/>
       <c r="B417" s="10"/>
       <c r="C417" s="9"/>
@@ -4256,7 +4261,7 @@
       <c r="E417" s="9"/>
       <c r="F417" s="11"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="9"/>
       <c r="B418" s="10"/>
       <c r="C418" s="9"/>
@@ -4264,7 +4269,7 @@
       <c r="E418" s="9"/>
       <c r="F418" s="11"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="9"/>
       <c r="B419" s="10"/>
       <c r="C419" s="9"/>
@@ -4272,7 +4277,7 @@
       <c r="E419" s="9"/>
       <c r="F419" s="11"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="9"/>
       <c r="B420" s="10"/>
       <c r="C420" s="9"/>
@@ -4280,7 +4285,7 @@
       <c r="E420" s="9"/>
       <c r="F420" s="11"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="9"/>
       <c r="B421" s="10"/>
       <c r="C421" s="9"/>
@@ -4288,7 +4293,7 @@
       <c r="E421" s="9"/>
       <c r="F421" s="11"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="9"/>
       <c r="B422" s="10"/>
       <c r="C422" s="9"/>
@@ -4296,7 +4301,7 @@
       <c r="E422" s="9"/>
       <c r="F422" s="11"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="9"/>
       <c r="B423" s="10"/>
       <c r="C423" s="9"/>
@@ -4304,7 +4309,7 @@
       <c r="E423" s="9"/>
       <c r="F423" s="11"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="9"/>
       <c r="B424" s="10"/>
       <c r="C424" s="9"/>
@@ -4312,7 +4317,7 @@
       <c r="E424" s="9"/>
       <c r="F424" s="11"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="9"/>
       <c r="B425" s="10"/>
       <c r="C425" s="9"/>
@@ -4320,7 +4325,7 @@
       <c r="E425" s="9"/>
       <c r="F425" s="11"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="9"/>
       <c r="B426" s="10"/>
       <c r="C426" s="9"/>
@@ -4328,7 +4333,7 @@
       <c r="E426" s="9"/>
       <c r="F426" s="11"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="9"/>
       <c r="B427" s="10"/>
       <c r="C427" s="9"/>
@@ -4336,7 +4341,7 @@
       <c r="E427" s="9"/>
       <c r="F427" s="11"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="9"/>
       <c r="B428" s="10"/>
       <c r="C428" s="9"/>
@@ -4344,7 +4349,7 @@
       <c r="E428" s="9"/>
       <c r="F428" s="11"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="9"/>
       <c r="B429" s="10"/>
       <c r="C429" s="9"/>
@@ -4352,7 +4357,7 @@
       <c r="E429" s="9"/>
       <c r="F429" s="11"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="9"/>
       <c r="B430" s="10"/>
       <c r="C430" s="9"/>
@@ -4360,7 +4365,7 @@
       <c r="E430" s="9"/>
       <c r="F430" s="11"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="9"/>
       <c r="B431" s="10"/>
       <c r="C431" s="9"/>
@@ -4368,7 +4373,7 @@
       <c r="E431" s="9"/>
       <c r="F431" s="11"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="9"/>
       <c r="B432" s="10"/>
       <c r="C432" s="9"/>
@@ -4376,7 +4381,7 @@
       <c r="E432" s="9"/>
       <c r="F432" s="11"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="9"/>
       <c r="B433" s="10"/>
       <c r="C433" s="9"/>
@@ -4384,7 +4389,7 @@
       <c r="E433" s="9"/>
       <c r="F433" s="11"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="9"/>
       <c r="B434" s="10"/>
       <c r="C434" s="9"/>
@@ -4392,7 +4397,7 @@
       <c r="E434" s="9"/>
       <c r="F434" s="11"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="9"/>
       <c r="B435" s="10"/>
       <c r="C435" s="9"/>
@@ -4400,7 +4405,7 @@
       <c r="E435" s="9"/>
       <c r="F435" s="11"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="9"/>
       <c r="B436" s="10"/>
       <c r="C436" s="9"/>
@@ -4408,7 +4413,7 @@
       <c r="E436" s="9"/>
       <c r="F436" s="11"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="9"/>
       <c r="B437" s="10"/>
       <c r="C437" s="9"/>
@@ -4416,7 +4421,7 @@
       <c r="E437" s="9"/>
       <c r="F437" s="11"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="9"/>
       <c r="B438" s="10"/>
       <c r="C438" s="9"/>
@@ -4424,7 +4429,7 @@
       <c r="E438" s="9"/>
       <c r="F438" s="11"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="9"/>
       <c r="B439" s="10"/>
       <c r="C439" s="9"/>
@@ -4432,7 +4437,7 @@
       <c r="E439" s="9"/>
       <c r="F439" s="11"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="9"/>
       <c r="B440" s="10"/>
       <c r="C440" s="9"/>
@@ -4440,7 +4445,7 @@
       <c r="E440" s="9"/>
       <c r="F440" s="11"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="9"/>
       <c r="B441" s="10"/>
       <c r="C441" s="9"/>
@@ -4448,7 +4453,7 @@
       <c r="E441" s="9"/>
       <c r="F441" s="11"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="9"/>
       <c r="B442" s="10"/>
       <c r="C442" s="9"/>
@@ -4456,7 +4461,7 @@
       <c r="E442" s="9"/>
       <c r="F442" s="11"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="9"/>
       <c r="B443" s="10"/>
       <c r="C443" s="9"/>
@@ -4464,7 +4469,7 @@
       <c r="E443" s="9"/>
       <c r="F443" s="11"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="9"/>
       <c r="B444" s="10"/>
       <c r="C444" s="9"/>
@@ -4472,7 +4477,7 @@
       <c r="E444" s="9"/>
       <c r="F444" s="11"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="9"/>
       <c r="B445" s="10"/>
       <c r="C445" s="9"/>
@@ -4480,7 +4485,7 @@
       <c r="E445" s="9"/>
       <c r="F445" s="11"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="9"/>
       <c r="B446" s="10"/>
       <c r="C446" s="9"/>
@@ -4488,7 +4493,7 @@
       <c r="E446" s="9"/>
       <c r="F446" s="11"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="9"/>
       <c r="B447" s="10"/>
       <c r="C447" s="9"/>
@@ -4496,7 +4501,7 @@
       <c r="E447" s="9"/>
       <c r="F447" s="11"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="9"/>
       <c r="B448" s="10"/>
       <c r="C448" s="9"/>
@@ -4504,7 +4509,7 @@
       <c r="E448" s="9"/>
       <c r="F448" s="11"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="9"/>
       <c r="B449" s="10"/>
       <c r="C449" s="9"/>
@@ -4512,7 +4517,7 @@
       <c r="E449" s="9"/>
       <c r="F449" s="11"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="9"/>
       <c r="B450" s="10"/>
       <c r="C450" s="9"/>
@@ -4520,7 +4525,7 @@
       <c r="E450" s="9"/>
       <c r="F450" s="11"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="9"/>
       <c r="B451" s="10"/>
       <c r="C451" s="9"/>
@@ -4528,7 +4533,7 @@
       <c r="E451" s="9"/>
       <c r="F451" s="11"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="9"/>
       <c r="B452" s="10"/>
       <c r="C452" s="9"/>
@@ -4536,7 +4541,7 @@
       <c r="E452" s="9"/>
       <c r="F452" s="11"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="9"/>
       <c r="B453" s="10"/>
       <c r="C453" s="9"/>
@@ -4544,7 +4549,7 @@
       <c r="E453" s="9"/>
       <c r="F453" s="11"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="9"/>
       <c r="B454" s="10"/>
       <c r="C454" s="9"/>
@@ -4552,7 +4557,7 @@
       <c r="E454" s="9"/>
       <c r="F454" s="11"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="9"/>
       <c r="B455" s="10"/>
       <c r="C455" s="9"/>
@@ -4560,7 +4565,7 @@
       <c r="E455" s="9"/>
       <c r="F455" s="11"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="9"/>
       <c r="B456" s="10"/>
       <c r="C456" s="9"/>
@@ -4568,7 +4573,7 @@
       <c r="E456" s="9"/>
       <c r="F456" s="11"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="9"/>
       <c r="B457" s="10"/>
       <c r="C457" s="9"/>
@@ -4576,7 +4581,7 @@
       <c r="E457" s="9"/>
       <c r="F457" s="11"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="9"/>
       <c r="B458" s="10"/>
       <c r="C458" s="9"/>
@@ -4584,7 +4589,7 @@
       <c r="E458" s="9"/>
       <c r="F458" s="11"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="9"/>
       <c r="B459" s="10"/>
       <c r="C459" s="9"/>
@@ -4592,7 +4597,7 @@
       <c r="E459" s="9"/>
       <c r="F459" s="11"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="9"/>
       <c r="B460" s="10"/>
       <c r="C460" s="9"/>
@@ -4600,7 +4605,7 @@
       <c r="E460" s="9"/>
       <c r="F460" s="11"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="9"/>
       <c r="B461" s="10"/>
       <c r="C461" s="9"/>
@@ -4608,7 +4613,7 @@
       <c r="E461" s="9"/>
       <c r="F461" s="11"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="9"/>
       <c r="B462" s="10"/>
       <c r="C462" s="9"/>
@@ -4616,7 +4621,7 @@
       <c r="E462" s="9"/>
       <c r="F462" s="11"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="9"/>
       <c r="B463" s="10"/>
       <c r="C463" s="9"/>
@@ -4624,7 +4629,7 @@
       <c r="E463" s="9"/>
       <c r="F463" s="11"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="9"/>
       <c r="B464" s="10"/>
       <c r="C464" s="9"/>
@@ -4632,7 +4637,7 @@
       <c r="E464" s="9"/>
       <c r="F464" s="11"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="9"/>
       <c r="B465" s="10"/>
       <c r="C465" s="9"/>
@@ -4640,7 +4645,7 @@
       <c r="E465" s="9"/>
       <c r="F465" s="11"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="9"/>
       <c r="B466" s="10"/>
       <c r="C466" s="9"/>
@@ -4648,7 +4653,7 @@
       <c r="E466" s="9"/>
       <c r="F466" s="11"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="9"/>
       <c r="B467" s="10"/>
       <c r="C467" s="9"/>
@@ -4656,7 +4661,7 @@
       <c r="E467" s="9"/>
       <c r="F467" s="11"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="9"/>
       <c r="B468" s="10"/>
       <c r="C468" s="9"/>
@@ -4664,7 +4669,7 @@
       <c r="E468" s="9"/>
       <c r="F468" s="11"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="9"/>
       <c r="B469" s="10"/>
       <c r="C469" s="9"/>
@@ -4672,7 +4677,7 @@
       <c r="E469" s="9"/>
       <c r="F469" s="11"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="9"/>
       <c r="B470" s="10"/>
       <c r="C470" s="9"/>
@@ -4680,7 +4685,7 @@
       <c r="E470" s="9"/>
       <c r="F470" s="11"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="9"/>
       <c r="B471" s="10"/>
       <c r="C471" s="9"/>
@@ -4688,7 +4693,7 @@
       <c r="E471" s="9"/>
       <c r="F471" s="11"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="9"/>
       <c r="B472" s="10"/>
       <c r="C472" s="9"/>
@@ -4696,7 +4701,7 @@
       <c r="E472" s="9"/>
       <c r="F472" s="11"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="9"/>
       <c r="B473" s="10"/>
       <c r="C473" s="9"/>
@@ -4704,7 +4709,7 @@
       <c r="E473" s="9"/>
       <c r="F473" s="11"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="9"/>
       <c r="B474" s="10"/>
       <c r="C474" s="9"/>
@@ -4712,7 +4717,7 @@
       <c r="E474" s="9"/>
       <c r="F474" s="11"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="9"/>
       <c r="B475" s="10"/>
       <c r="C475" s="9"/>
@@ -4720,7 +4725,7 @@
       <c r="E475" s="9"/>
       <c r="F475" s="11"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="9"/>
       <c r="B476" s="10"/>
       <c r="C476" s="9"/>
@@ -4728,7 +4733,7 @@
       <c r="E476" s="9"/>
       <c r="F476" s="11"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="9"/>
       <c r="B477" s="10"/>
       <c r="C477" s="9"/>
@@ -4736,7 +4741,7 @@
       <c r="E477" s="9"/>
       <c r="F477" s="11"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="9"/>
       <c r="B478" s="10"/>
       <c r="C478" s="9"/>
@@ -4744,7 +4749,7 @@
       <c r="E478" s="9"/>
       <c r="F478" s="11"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="9"/>
       <c r="B479" s="10"/>
       <c r="C479" s="9"/>
@@ -4752,7 +4757,7 @@
       <c r="E479" s="9"/>
       <c r="F479" s="11"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="9"/>
       <c r="B480" s="10"/>
       <c r="C480" s="9"/>
@@ -4760,7 +4765,7 @@
       <c r="E480" s="9"/>
       <c r="F480" s="11"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="9"/>
       <c r="B481" s="10"/>
       <c r="C481" s="9"/>
@@ -4768,7 +4773,7 @@
       <c r="E481" s="9"/>
       <c r="F481" s="11"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="9"/>
       <c r="B482" s="10"/>
       <c r="C482" s="9"/>
@@ -4776,7 +4781,7 @@
       <c r="E482" s="9"/>
       <c r="F482" s="11"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="9"/>
       <c r="B483" s="10"/>
       <c r="C483" s="9"/>
@@ -4784,7 +4789,7 @@
       <c r="E483" s="9"/>
       <c r="F483" s="11"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="9"/>
       <c r="B484" s="10"/>
       <c r="C484" s="9"/>
@@ -4792,7 +4797,7 @@
       <c r="E484" s="9"/>
       <c r="F484" s="11"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="9"/>
       <c r="B485" s="10"/>
       <c r="C485" s="9"/>
@@ -4800,7 +4805,7 @@
       <c r="E485" s="9"/>
       <c r="F485" s="11"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="9"/>
       <c r="B486" s="10"/>
       <c r="C486" s="9"/>
@@ -4808,7 +4813,7 @@
       <c r="E486" s="9"/>
       <c r="F486" s="11"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="9"/>
       <c r="B487" s="10"/>
       <c r="C487" s="9"/>
@@ -4816,7 +4821,7 @@
       <c r="E487" s="9"/>
       <c r="F487" s="11"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="9"/>
       <c r="B488" s="10"/>
       <c r="C488" s="9"/>
@@ -4824,7 +4829,7 @@
       <c r="E488" s="9"/>
       <c r="F488" s="11"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="9"/>
       <c r="B489" s="10"/>
       <c r="C489" s="9"/>
@@ -4832,7 +4837,7 @@
       <c r="E489" s="9"/>
       <c r="F489" s="11"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="9"/>
       <c r="B490" s="10"/>
       <c r="C490" s="9"/>
@@ -4840,7 +4845,7 @@
       <c r="E490" s="9"/>
       <c r="F490" s="11"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="9"/>
       <c r="B491" s="10"/>
       <c r="C491" s="9"/>
@@ -4848,7 +4853,7 @@
       <c r="E491" s="9"/>
       <c r="F491" s="11"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="9"/>
       <c r="B492" s="10"/>
       <c r="C492" s="9"/>
@@ -4856,7 +4861,7 @@
       <c r="E492" s="9"/>
       <c r="F492" s="11"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="9"/>
       <c r="B493" s="10"/>
       <c r="C493" s="9"/>
@@ -4864,7 +4869,7 @@
       <c r="E493" s="9"/>
       <c r="F493" s="11"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="9"/>
       <c r="B494" s="10"/>
       <c r="C494" s="9"/>
@@ -4872,7 +4877,7 @@
       <c r="E494" s="9"/>
       <c r="F494" s="11"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="9"/>
       <c r="B495" s="10"/>
       <c r="C495" s="9"/>
@@ -4880,7 +4885,7 @@
       <c r="E495" s="9"/>
       <c r="F495" s="11"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="9"/>
       <c r="B496" s="10"/>
       <c r="C496" s="9"/>
@@ -4888,7 +4893,7 @@
       <c r="E496" s="9"/>
       <c r="F496" s="11"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="9"/>
       <c r="B497" s="10"/>
       <c r="C497" s="9"/>
@@ -4896,7 +4901,7 @@
       <c r="E497" s="9"/>
       <c r="F497" s="11"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="9"/>
       <c r="B498" s="10"/>
       <c r="C498" s="9"/>
@@ -4904,7 +4909,7 @@
       <c r="E498" s="9"/>
       <c r="F498" s="11"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="9"/>
       <c r="B499" s="10"/>
       <c r="C499" s="9"/>
@@ -4912,7 +4917,7 @@
       <c r="E499" s="9"/>
       <c r="F499" s="11"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="9"/>
       <c r="B500" s="10"/>
       <c r="C500" s="9"/>
@@ -4920,7 +4925,7 @@
       <c r="E500" s="9"/>
       <c r="F500" s="11"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="9"/>
       <c r="B501" s="10"/>
       <c r="C501" s="9"/>
@@ -4928,7 +4933,7 @@
       <c r="E501" s="9"/>
       <c r="F501" s="11"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="9"/>
       <c r="B502" s="10"/>
       <c r="C502" s="9"/>
@@ -4936,7 +4941,7 @@
       <c r="E502" s="9"/>
       <c r="F502" s="11"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="9"/>
       <c r="B503" s="10"/>
       <c r="C503" s="9"/>
@@ -4944,7 +4949,7 @@
       <c r="E503" s="9"/>
       <c r="F503" s="11"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="9"/>
       <c r="B504" s="10"/>
       <c r="C504" s="9"/>
@@ -4952,7 +4957,7 @@
       <c r="E504" s="9"/>
       <c r="F504" s="11"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="9"/>
       <c r="B505" s="10"/>
       <c r="C505" s="9"/>
@@ -4960,7 +4965,7 @@
       <c r="E505" s="9"/>
       <c r="F505" s="11"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="9"/>
       <c r="B506" s="10"/>
       <c r="C506" s="9"/>
@@ -4968,7 +4973,7 @@
       <c r="E506" s="9"/>
       <c r="F506" s="11"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="9"/>
       <c r="B507" s="10"/>
       <c r="C507" s="9"/>
@@ -4976,7 +4981,7 @@
       <c r="E507" s="9"/>
       <c r="F507" s="11"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="9"/>
       <c r="B508" s="10"/>
       <c r="C508" s="9"/>
@@ -4984,7 +4989,7 @@
       <c r="E508" s="9"/>
       <c r="F508" s="11"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="9"/>
       <c r="B509" s="10"/>
       <c r="C509" s="9"/>
@@ -4992,7 +4997,7 @@
       <c r="E509" s="9"/>
       <c r="F509" s="11"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="9"/>
       <c r="B510" s="10"/>
       <c r="C510" s="9"/>
@@ -5000,7 +5005,7 @@
       <c r="E510" s="9"/>
       <c r="F510" s="11"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="9"/>
       <c r="B511" s="10"/>
       <c r="C511" s="9"/>
@@ -5008,7 +5013,7 @@
       <c r="E511" s="9"/>
       <c r="F511" s="11"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="9"/>
       <c r="B512" s="10"/>
       <c r="C512" s="9"/>
@@ -5016,7 +5021,7 @@
       <c r="E512" s="9"/>
       <c r="F512" s="11"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="9"/>
       <c r="B513" s="10"/>
       <c r="C513" s="9"/>
@@ -5024,7 +5029,7 @@
       <c r="E513" s="9"/>
       <c r="F513" s="11"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="9"/>
       <c r="B514" s="10"/>
       <c r="C514" s="9"/>
@@ -5032,7 +5037,7 @@
       <c r="E514" s="9"/>
       <c r="F514" s="11"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="9"/>
       <c r="B515" s="10"/>
       <c r="C515" s="9"/>
@@ -5040,7 +5045,7 @@
       <c r="E515" s="9"/>
       <c r="F515" s="11"/>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="9"/>
       <c r="B516" s="10"/>
       <c r="C516" s="9"/>
@@ -5048,7 +5053,7 @@
       <c r="E516" s="9"/>
       <c r="F516" s="11"/>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="9"/>
       <c r="B517" s="10"/>
       <c r="C517" s="9"/>
@@ -5056,7 +5061,7 @@
       <c r="E517" s="9"/>
       <c r="F517" s="11"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="9"/>
       <c r="B518" s="10"/>
       <c r="C518" s="9"/>
@@ -5064,7 +5069,7 @@
       <c r="E518" s="9"/>
       <c r="F518" s="11"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="9"/>
       <c r="B519" s="10"/>
       <c r="C519" s="9"/>
@@ -5072,7 +5077,7 @@
       <c r="E519" s="9"/>
       <c r="F519" s="11"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="9"/>
       <c r="B520" s="10"/>
       <c r="C520" s="9"/>
@@ -5080,7 +5085,7 @@
       <c r="E520" s="9"/>
       <c r="F520" s="11"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="9"/>
       <c r="B521" s="10"/>
       <c r="C521" s="9"/>
@@ -5088,7 +5093,7 @@
       <c r="E521" s="9"/>
       <c r="F521" s="11"/>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="9"/>
       <c r="B522" s="10"/>
       <c r="C522" s="9"/>
@@ -5096,7 +5101,7 @@
       <c r="E522" s="9"/>
       <c r="F522" s="11"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="9"/>
       <c r="B523" s="10"/>
       <c r="C523" s="9"/>
@@ -5104,7 +5109,7 @@
       <c r="E523" s="9"/>
       <c r="F523" s="11"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="9"/>
       <c r="B524" s="10"/>
       <c r="C524" s="9"/>
@@ -5112,7 +5117,7 @@
       <c r="E524" s="9"/>
       <c r="F524" s="11"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="9"/>
       <c r="B525" s="10"/>
       <c r="C525" s="9"/>
@@ -5120,7 +5125,7 @@
       <c r="E525" s="9"/>
       <c r="F525" s="11"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="9"/>
       <c r="B526" s="10"/>
       <c r="C526" s="9"/>
@@ -5128,7 +5133,7 @@
       <c r="E526" s="9"/>
       <c r="F526" s="11"/>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="9"/>
       <c r="B527" s="10"/>
       <c r="C527" s="9"/>
@@ -5136,7 +5141,7 @@
       <c r="E527" s="9"/>
       <c r="F527" s="11"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="9"/>
       <c r="B528" s="10"/>
       <c r="C528" s="9"/>
@@ -5144,7 +5149,7 @@
       <c r="E528" s="9"/>
       <c r="F528" s="11"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="9"/>
       <c r="B529" s="10"/>
       <c r="C529" s="9"/>
@@ -5152,7 +5157,7 @@
       <c r="E529" s="9"/>
       <c r="F529" s="11"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="9"/>
       <c r="B530" s="10"/>
       <c r="C530" s="9"/>
@@ -5160,7 +5165,7 @@
       <c r="E530" s="9"/>
       <c r="F530" s="11"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="9"/>
       <c r="B531" s="10"/>
       <c r="C531" s="9"/>
@@ -5168,7 +5173,7 @@
       <c r="E531" s="9"/>
       <c r="F531" s="11"/>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="9"/>
       <c r="B532" s="10"/>
       <c r="C532" s="9"/>
@@ -5176,7 +5181,7 @@
       <c r="E532" s="9"/>
       <c r="F532" s="11"/>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="9"/>
       <c r="B533" s="10"/>
       <c r="C533" s="9"/>
@@ -5184,7 +5189,7 @@
       <c r="E533" s="9"/>
       <c r="F533" s="11"/>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="9"/>
       <c r="B534" s="10"/>
       <c r="C534" s="9"/>
@@ -5192,7 +5197,7 @@
       <c r="E534" s="9"/>
       <c r="F534" s="11"/>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="9"/>
       <c r="B535" s="10"/>
       <c r="C535" s="9"/>
@@ -5200,7 +5205,7 @@
       <c r="E535" s="9"/>
       <c r="F535" s="11"/>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="9"/>
       <c r="B536" s="10"/>
       <c r="C536" s="9"/>
@@ -5208,7 +5213,7 @@
       <c r="E536" s="9"/>
       <c r="F536" s="11"/>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="9"/>
       <c r="B537" s="10"/>
       <c r="C537" s="9"/>
@@ -5216,7 +5221,7 @@
       <c r="E537" s="9"/>
       <c r="F537" s="11"/>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="9"/>
       <c r="B538" s="10"/>
       <c r="C538" s="9"/>
@@ -5224,7 +5229,7 @@
       <c r="E538" s="9"/>
       <c r="F538" s="11"/>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="9"/>
       <c r="B539" s="10"/>
       <c r="C539" s="9"/>
@@ -5232,7 +5237,7 @@
       <c r="E539" s="9"/>
       <c r="F539" s="11"/>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="9"/>
       <c r="B540" s="10"/>
       <c r="C540" s="9"/>
@@ -5240,7 +5245,7 @@
       <c r="E540" s="9"/>
       <c r="F540" s="11"/>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="9"/>
       <c r="B541" s="10"/>
       <c r="C541" s="9"/>
@@ -5248,7 +5253,7 @@
       <c r="E541" s="9"/>
       <c r="F541" s="11"/>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="9"/>
       <c r="B542" s="10"/>
       <c r="C542" s="9"/>
@@ -5256,7 +5261,7 @@
       <c r="E542" s="9"/>
       <c r="F542" s="11"/>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="9"/>
       <c r="B543" s="10"/>
       <c r="C543" s="9"/>
@@ -5264,7 +5269,7 @@
       <c r="E543" s="9"/>
       <c r="F543" s="11"/>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="9"/>
       <c r="B544" s="10"/>
       <c r="C544" s="9"/>
@@ -5272,7 +5277,7 @@
       <c r="E544" s="9"/>
       <c r="F544" s="11"/>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="9"/>
       <c r="B545" s="10"/>
       <c r="C545" s="9"/>
@@ -5280,7 +5285,7 @@
       <c r="E545" s="9"/>
       <c r="F545" s="11"/>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="9"/>
       <c r="B546" s="10"/>
       <c r="C546" s="9"/>
@@ -5288,7 +5293,7 @@
       <c r="E546" s="9"/>
       <c r="F546" s="11"/>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="9"/>
       <c r="B547" s="10"/>
       <c r="C547" s="9"/>
@@ -5296,7 +5301,7 @@
       <c r="E547" s="9"/>
       <c r="F547" s="11"/>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="9"/>
       <c r="B548" s="10"/>
       <c r="C548" s="9"/>
@@ -5304,7 +5309,7 @@
       <c r="E548" s="9"/>
       <c r="F548" s="11"/>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="9"/>
       <c r="B549" s="10"/>
       <c r="C549" s="9"/>
@@ -5312,7 +5317,7 @@
       <c r="E549" s="9"/>
       <c r="F549" s="11"/>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="9"/>
       <c r="B550" s="10"/>
       <c r="C550" s="9"/>
@@ -5320,7 +5325,7 @@
       <c r="E550" s="9"/>
       <c r="F550" s="11"/>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="9"/>
       <c r="B551" s="10"/>
       <c r="C551" s="9"/>
@@ -5328,7 +5333,7 @@
       <c r="E551" s="9"/>
       <c r="F551" s="11"/>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="9"/>
       <c r="B552" s="10"/>
       <c r="C552" s="9"/>
@@ -5336,7 +5341,7 @@
       <c r="E552" s="9"/>
       <c r="F552" s="11"/>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="9"/>
       <c r="B553" s="10"/>
       <c r="C553" s="9"/>
@@ -5344,7 +5349,7 @@
       <c r="E553" s="9"/>
       <c r="F553" s="11"/>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="9"/>
       <c r="B554" s="10"/>
       <c r="C554" s="9"/>
@@ -5352,7 +5357,7 @@
       <c r="E554" s="9"/>
       <c r="F554" s="11"/>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="9"/>
       <c r="B555" s="10"/>
       <c r="C555" s="9"/>
@@ -5360,7 +5365,7 @@
       <c r="E555" s="9"/>
       <c r="F555" s="11"/>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="9"/>
       <c r="B556" s="10"/>
       <c r="C556" s="9"/>
@@ -5368,7 +5373,7 @@
       <c r="E556" s="9"/>
       <c r="F556" s="11"/>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="9"/>
       <c r="B557" s="10"/>
       <c r="C557" s="9"/>
@@ -5376,7 +5381,7 @@
       <c r="E557" s="9"/>
       <c r="F557" s="11"/>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="9"/>
       <c r="B558" s="10"/>
       <c r="C558" s="9"/>
@@ -5384,7 +5389,7 @@
       <c r="E558" s="9"/>
       <c r="F558" s="11"/>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="9"/>
       <c r="B559" s="10"/>
       <c r="C559" s="9"/>
@@ -5392,7 +5397,7 @@
       <c r="E559" s="9"/>
       <c r="F559" s="11"/>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="9"/>
       <c r="B560" s="10"/>
       <c r="C560" s="9"/>
@@ -5400,7 +5405,7 @@
       <c r="E560" s="9"/>
       <c r="F560" s="11"/>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="9"/>
       <c r="B561" s="10"/>
       <c r="C561" s="9"/>
@@ -5408,7 +5413,7 @@
       <c r="E561" s="9"/>
       <c r="F561" s="11"/>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="9"/>
       <c r="B562" s="10"/>
       <c r="C562" s="9"/>
@@ -5416,7 +5421,7 @@
       <c r="E562" s="9"/>
       <c r="F562" s="11"/>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="9"/>
       <c r="B563" s="10"/>
       <c r="C563" s="9"/>
@@ -5424,7 +5429,7 @@
       <c r="E563" s="9"/>
       <c r="F563" s="11"/>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="9"/>
       <c r="B564" s="10"/>
       <c r="C564" s="9"/>
@@ -5432,7 +5437,7 @@
       <c r="E564" s="9"/>
       <c r="F564" s="11"/>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="9"/>
       <c r="B565" s="10"/>
       <c r="C565" s="9"/>
@@ -5440,7 +5445,7 @@
       <c r="E565" s="9"/>
       <c r="F565" s="11"/>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="9"/>
       <c r="B566" s="10"/>
       <c r="C566" s="9"/>
@@ -5448,7 +5453,7 @@
       <c r="E566" s="9"/>
       <c r="F566" s="11"/>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="9"/>
       <c r="B567" s="10"/>
       <c r="C567" s="9"/>
@@ -5456,7 +5461,7 @@
       <c r="E567" s="9"/>
       <c r="F567" s="11"/>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="9"/>
       <c r="B568" s="10"/>
       <c r="C568" s="9"/>
@@ -5464,7 +5469,7 @@
       <c r="E568" s="9"/>
       <c r="F568" s="11"/>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="9"/>
       <c r="B569" s="10"/>
       <c r="C569" s="9"/>
@@ -5472,7 +5477,7 @@
       <c r="E569" s="9"/>
       <c r="F569" s="11"/>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="9"/>
       <c r="B570" s="10"/>
       <c r="C570" s="9"/>
@@ -5480,7 +5485,7 @@
       <c r="E570" s="9"/>
       <c r="F570" s="11"/>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="9"/>
       <c r="B571" s="10"/>
       <c r="C571" s="9"/>
@@ -5488,7 +5493,7 @@
       <c r="E571" s="9"/>
       <c r="F571" s="11"/>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="9"/>
       <c r="B572" s="10"/>
       <c r="C572" s="9"/>
@@ -5496,7 +5501,7 @@
       <c r="E572" s="9"/>
       <c r="F572" s="11"/>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="9"/>
       <c r="B573" s="10"/>
       <c r="C573" s="9"/>
@@ -5504,7 +5509,7 @@
       <c r="E573" s="9"/>
       <c r="F573" s="11"/>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="9"/>
       <c r="B574" s="10"/>
       <c r="C574" s="9"/>
@@ -5512,7 +5517,7 @@
       <c r="E574" s="9"/>
       <c r="F574" s="11"/>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="9"/>
       <c r="B575" s="10"/>
       <c r="C575" s="9"/>
@@ -5520,7 +5525,7 @@
       <c r="E575" s="9"/>
       <c r="F575" s="11"/>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="9"/>
       <c r="B576" s="10"/>
       <c r="C576" s="9"/>
@@ -5528,7 +5533,7 @@
       <c r="E576" s="9"/>
       <c r="F576" s="11"/>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="9"/>
       <c r="B577" s="10"/>
       <c r="C577" s="9"/>
@@ -5536,7 +5541,7 @@
       <c r="E577" s="9"/>
       <c r="F577" s="11"/>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="9"/>
       <c r="B578" s="10"/>
       <c r="C578" s="9"/>
@@ -5544,7 +5549,7 @@
       <c r="E578" s="9"/>
       <c r="F578" s="11"/>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="9"/>
       <c r="B579" s="10"/>
       <c r="C579" s="9"/>
@@ -5552,7 +5557,7 @@
       <c r="E579" s="9"/>
       <c r="F579" s="11"/>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="9"/>
       <c r="B580" s="10"/>
       <c r="C580" s="9"/>
@@ -5560,7 +5565,7 @@
       <c r="E580" s="9"/>
       <c r="F580" s="11"/>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="9"/>
       <c r="B581" s="10"/>
       <c r="C581" s="9"/>
@@ -5568,7 +5573,7 @@
       <c r="E581" s="9"/>
       <c r="F581" s="11"/>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="9"/>
       <c r="B582" s="10"/>
       <c r="C582" s="9"/>
@@ -5576,7 +5581,7 @@
       <c r="E582" s="9"/>
       <c r="F582" s="11"/>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="9"/>
       <c r="B583" s="10"/>
       <c r="C583" s="9"/>
@@ -5584,7 +5589,7 @@
       <c r="E583" s="9"/>
       <c r="F583" s="11"/>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="9"/>
       <c r="B584" s="10"/>
       <c r="C584" s="9"/>
@@ -5592,7 +5597,7 @@
       <c r="E584" s="9"/>
       <c r="F584" s="11"/>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="9"/>
       <c r="B585" s="10"/>
       <c r="C585" s="9"/>
@@ -5600,7 +5605,7 @@
       <c r="E585" s="9"/>
       <c r="F585" s="11"/>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="9"/>
       <c r="B586" s="10"/>
       <c r="C586" s="9"/>
@@ -5608,7 +5613,7 @@
       <c r="E586" s="9"/>
       <c r="F586" s="11"/>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="9"/>
       <c r="B587" s="10"/>
       <c r="C587" s="9"/>
@@ -5616,7 +5621,7 @@
       <c r="E587" s="9"/>
       <c r="F587" s="11"/>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="9"/>
       <c r="B588" s="10"/>
       <c r="C588" s="9"/>
@@ -5624,7 +5629,7 @@
       <c r="E588" s="9"/>
       <c r="F588" s="11"/>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="9"/>
       <c r="B589" s="10"/>
       <c r="C589" s="9"/>
@@ -5632,7 +5637,7 @@
       <c r="E589" s="9"/>
       <c r="F589" s="11"/>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="9"/>
       <c r="B590" s="10"/>
       <c r="C590" s="9"/>
@@ -5640,7 +5645,7 @@
       <c r="E590" s="9"/>
       <c r="F590" s="11"/>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="9"/>
       <c r="B591" s="10"/>
       <c r="C591" s="9"/>
@@ -5648,7 +5653,7 @@
       <c r="E591" s="9"/>
       <c r="F591" s="11"/>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="9"/>
       <c r="B592" s="10"/>
       <c r="C592" s="9"/>
@@ -5656,7 +5661,7 @@
       <c r="E592" s="9"/>
       <c r="F592" s="11"/>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="9"/>
       <c r="B593" s="10"/>
       <c r="C593" s="9"/>
@@ -5664,7 +5669,7 @@
       <c r="E593" s="9"/>
       <c r="F593" s="11"/>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="9"/>
       <c r="B594" s="10"/>
       <c r="C594" s="9"/>
@@ -5672,7 +5677,7 @@
       <c r="E594" s="9"/>
       <c r="F594" s="11"/>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="9"/>
       <c r="B595" s="10"/>
       <c r="C595" s="9"/>
@@ -5680,7 +5685,7 @@
       <c r="E595" s="9"/>
       <c r="F595" s="11"/>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="9"/>
       <c r="B596" s="10"/>
       <c r="C596" s="9"/>
@@ -5688,7 +5693,7 @@
       <c r="E596" s="9"/>
       <c r="F596" s="11"/>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="9"/>
       <c r="B597" s="10"/>
       <c r="C597" s="9"/>
@@ -5696,7 +5701,7 @@
       <c r="E597" s="9"/>
       <c r="F597" s="11"/>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="9"/>
       <c r="B598" s="10"/>
       <c r="C598" s="9"/>
@@ -5704,7 +5709,7 @@
       <c r="E598" s="9"/>
       <c r="F598" s="11"/>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="9"/>
       <c r="B599" s="10"/>
       <c r="C599" s="9"/>
@@ -5712,7 +5717,7 @@
       <c r="E599" s="9"/>
       <c r="F599" s="11"/>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="9"/>
       <c r="B600" s="10"/>
       <c r="C600" s="9"/>
@@ -5720,7 +5725,7 @@
       <c r="E600" s="9"/>
       <c r="F600" s="11"/>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="9"/>
       <c r="B601" s="10"/>
       <c r="C601" s="9"/>
@@ -5728,7 +5733,7 @@
       <c r="E601" s="9"/>
       <c r="F601" s="11"/>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="9"/>
       <c r="B602" s="10"/>
       <c r="C602" s="9"/>
@@ -5736,7 +5741,7 @@
       <c r="E602" s="9"/>
       <c r="F602" s="11"/>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="9"/>
       <c r="B603" s="10"/>
       <c r="C603" s="9"/>
@@ -5744,7 +5749,7 @@
       <c r="E603" s="9"/>
       <c r="F603" s="11"/>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="9"/>
       <c r="B604" s="10"/>
       <c r="C604" s="9"/>
@@ -5752,7 +5757,7 @@
       <c r="E604" s="9"/>
       <c r="F604" s="11"/>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="9"/>
       <c r="B605" s="10"/>
       <c r="C605" s="9"/>
@@ -5760,7 +5765,7 @@
       <c r="E605" s="9"/>
       <c r="F605" s="11"/>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="9"/>
       <c r="B606" s="10"/>
       <c r="C606" s="9"/>
@@ -5768,7 +5773,7 @@
       <c r="E606" s="9"/>
       <c r="F606" s="11"/>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="9"/>
       <c r="B607" s="10"/>
       <c r="C607" s="9"/>
@@ -5776,7 +5781,7 @@
       <c r="E607" s="9"/>
       <c r="F607" s="11"/>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="9"/>
       <c r="B608" s="10"/>
       <c r="C608" s="9"/>
@@ -5784,7 +5789,7 @@
       <c r="E608" s="9"/>
       <c r="F608" s="11"/>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="9"/>
       <c r="B609" s="10"/>
       <c r="C609" s="9"/>
@@ -5792,7 +5797,7 @@
       <c r="E609" s="9"/>
       <c r="F609" s="11"/>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="9"/>
       <c r="B610" s="10"/>
       <c r="C610" s="9"/>
@@ -5800,7 +5805,7 @@
       <c r="E610" s="9"/>
       <c r="F610" s="11"/>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="9"/>
       <c r="B611" s="10"/>
       <c r="C611" s="9"/>
@@ -5808,7 +5813,7 @@
       <c r="E611" s="9"/>
       <c r="F611" s="11"/>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="9"/>
       <c r="B612" s="10"/>
       <c r="C612" s="9"/>
@@ -5816,7 +5821,7 @@
       <c r="E612" s="9"/>
       <c r="F612" s="11"/>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="9"/>
       <c r="B613" s="10"/>
       <c r="C613" s="9"/>
@@ -5824,7 +5829,7 @@
       <c r="E613" s="9"/>
       <c r="F613" s="11"/>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="9"/>
       <c r="B614" s="10"/>
       <c r="C614" s="9"/>
@@ -5832,7 +5837,7 @@
       <c r="E614" s="9"/>
       <c r="F614" s="11"/>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="9"/>
       <c r="B615" s="10"/>
       <c r="C615" s="9"/>
@@ -5840,7 +5845,7 @@
       <c r="E615" s="9"/>
       <c r="F615" s="11"/>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="9"/>
       <c r="B616" s="10"/>
       <c r="C616" s="9"/>
@@ -5848,7 +5853,7 @@
       <c r="E616" s="9"/>
       <c r="F616" s="11"/>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="9"/>
       <c r="B617" s="10"/>
       <c r="C617" s="9"/>
@@ -5856,7 +5861,7 @@
       <c r="E617" s="9"/>
       <c r="F617" s="11"/>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="9"/>
       <c r="B618" s="10"/>
       <c r="C618" s="9"/>
@@ -5864,7 +5869,7 @@
       <c r="E618" s="9"/>
       <c r="F618" s="11"/>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="9"/>
       <c r="B619" s="10"/>
       <c r="C619" s="9"/>
@@ -5872,7 +5877,7 @@
       <c r="E619" s="9"/>
       <c r="F619" s="11"/>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="9"/>
       <c r="B620" s="10"/>
       <c r="C620" s="9"/>
@@ -5880,7 +5885,7 @@
       <c r="E620" s="9"/>
       <c r="F620" s="11"/>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="9"/>
       <c r="B621" s="10"/>
       <c r="C621" s="9"/>
@@ -5888,7 +5893,7 @@
       <c r="E621" s="9"/>
       <c r="F621" s="11"/>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="9"/>
       <c r="B622" s="10"/>
       <c r="C622" s="9"/>
@@ -5896,7 +5901,7 @@
       <c r="E622" s="9"/>
       <c r="F622" s="11"/>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="9"/>
       <c r="B623" s="10"/>
       <c r="C623" s="9"/>
@@ -5904,7 +5909,7 @@
       <c r="E623" s="9"/>
       <c r="F623" s="11"/>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="9"/>
       <c r="B624" s="10"/>
       <c r="C624" s="9"/>
@@ -5912,7 +5917,7 @@
       <c r="E624" s="9"/>
       <c r="F624" s="11"/>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="9"/>
       <c r="B625" s="10"/>
       <c r="C625" s="9"/>
@@ -5920,7 +5925,7 @@
       <c r="E625" s="9"/>
       <c r="F625" s="11"/>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="9"/>
       <c r="B626" s="10"/>
       <c r="C626" s="9"/>
@@ -5928,7 +5933,7 @@
       <c r="E626" s="9"/>
       <c r="F626" s="11"/>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="9"/>
       <c r="B627" s="10"/>
       <c r="C627" s="9"/>
@@ -5936,7 +5941,7 @@
       <c r="E627" s="9"/>
       <c r="F627" s="11"/>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="9"/>
       <c r="B628" s="10"/>
       <c r="C628" s="9"/>
@@ -5944,7 +5949,7 @@
       <c r="E628" s="9"/>
       <c r="F628" s="11"/>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="9"/>
       <c r="B629" s="10"/>
       <c r="C629" s="9"/>
@@ -5952,7 +5957,7 @@
       <c r="E629" s="9"/>
       <c r="F629" s="11"/>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="9"/>
       <c r="B630" s="10"/>
       <c r="C630" s="9"/>
@@ -5960,7 +5965,7 @@
       <c r="E630" s="9"/>
       <c r="F630" s="11"/>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="9"/>
       <c r="B631" s="10"/>
       <c r="C631" s="9"/>
@@ -5968,7 +5973,7 @@
       <c r="E631" s="9"/>
       <c r="F631" s="11"/>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="9"/>
       <c r="B632" s="10"/>
       <c r="C632" s="9"/>
@@ -5976,7 +5981,7 @@
       <c r="E632" s="9"/>
       <c r="F632" s="11"/>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="9"/>
       <c r="B633" s="10"/>
       <c r="C633" s="9"/>
@@ -5984,7 +5989,7 @@
       <c r="E633" s="9"/>
       <c r="F633" s="11"/>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="9"/>
       <c r="B634" s="10"/>
       <c r="C634" s="9"/>
@@ -5992,7 +5997,7 @@
       <c r="E634" s="9"/>
       <c r="F634" s="11"/>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="9"/>
       <c r="B635" s="10"/>
       <c r="C635" s="9"/>
@@ -6000,7 +6005,7 @@
       <c r="E635" s="9"/>
       <c r="F635" s="11"/>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="9"/>
       <c r="B636" s="10"/>
       <c r="C636" s="9"/>
@@ -6008,7 +6013,7 @@
       <c r="E636" s="9"/>
       <c r="F636" s="11"/>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="9"/>
       <c r="B637" s="10"/>
       <c r="C637" s="9"/>
@@ -6016,7 +6021,7 @@
       <c r="E637" s="9"/>
       <c r="F637" s="11"/>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="9"/>
       <c r="B638" s="10"/>
       <c r="C638" s="9"/>
@@ -6024,7 +6029,7 @@
       <c r="E638" s="9"/>
       <c r="F638" s="11"/>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="9"/>
       <c r="B639" s="10"/>
       <c r="C639" s="9"/>
@@ -6032,7 +6037,7 @@
       <c r="E639" s="9"/>
       <c r="F639" s="11"/>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="9"/>
       <c r="B640" s="10"/>
       <c r="C640" s="9"/>
@@ -6040,7 +6045,7 @@
       <c r="E640" s="9"/>
       <c r="F640" s="11"/>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="9"/>
       <c r="B641" s="10"/>
       <c r="C641" s="9"/>
@@ -6048,7 +6053,7 @@
       <c r="E641" s="9"/>
       <c r="F641" s="11"/>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="9"/>
       <c r="B642" s="10"/>
       <c r="C642" s="9"/>
@@ -6056,7 +6061,7 @@
       <c r="E642" s="9"/>
       <c r="F642" s="11"/>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="9"/>
       <c r="B643" s="10"/>
       <c r="C643" s="9"/>
@@ -6064,7 +6069,7 @@
       <c r="E643" s="9"/>
       <c r="F643" s="11"/>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="9"/>
       <c r="B644" s="10"/>
       <c r="C644" s="9"/>
@@ -6072,7 +6077,7 @@
       <c r="E644" s="9"/>
       <c r="F644" s="11"/>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="9"/>
       <c r="B645" s="10"/>
       <c r="C645" s="9"/>
@@ -6080,7 +6085,7 @@
       <c r="E645" s="9"/>
       <c r="F645" s="11"/>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="9"/>
       <c r="B646" s="10"/>
       <c r="C646" s="9"/>
@@ -6088,7 +6093,7 @@
       <c r="E646" s="9"/>
       <c r="F646" s="11"/>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="9"/>
       <c r="B647" s="10"/>
       <c r="C647" s="9"/>
@@ -6096,7 +6101,7 @@
       <c r="E647" s="9"/>
       <c r="F647" s="11"/>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="9"/>
       <c r="B648" s="10"/>
       <c r="C648" s="9"/>
@@ -6104,7 +6109,7 @@
       <c r="E648" s="9"/>
       <c r="F648" s="11"/>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="9"/>
       <c r="B649" s="10"/>
       <c r="C649" s="9"/>
@@ -6112,7 +6117,7 @@
       <c r="E649" s="9"/>
       <c r="F649" s="11"/>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="9"/>
       <c r="B650" s="10"/>
       <c r="C650" s="9"/>
@@ -6120,7 +6125,7 @@
       <c r="E650" s="9"/>
       <c r="F650" s="11"/>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="9"/>
       <c r="B651" s="10"/>
       <c r="C651" s="9"/>
@@ -6128,7 +6133,7 @@
       <c r="E651" s="9"/>
       <c r="F651" s="11"/>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="9"/>
       <c r="B652" s="10"/>
       <c r="C652" s="9"/>
@@ -6136,7 +6141,7 @@
       <c r="E652" s="9"/>
       <c r="F652" s="11"/>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="9"/>
       <c r="B653" s="10"/>
       <c r="C653" s="9"/>
@@ -6144,7 +6149,7 @@
       <c r="E653" s="9"/>
       <c r="F653" s="11"/>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="9"/>
       <c r="B654" s="10"/>
       <c r="C654" s="9"/>
@@ -6152,7 +6157,7 @@
       <c r="E654" s="9"/>
       <c r="F654" s="11"/>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="9"/>
       <c r="B655" s="10"/>
       <c r="C655" s="9"/>
@@ -6160,7 +6165,7 @@
       <c r="E655" s="9"/>
       <c r="F655" s="11"/>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="9"/>
       <c r="B656" s="10"/>
       <c r="C656" s="9"/>
@@ -6168,7 +6173,7 @@
       <c r="E656" s="9"/>
       <c r="F656" s="11"/>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="9"/>
       <c r="B657" s="10"/>
       <c r="C657" s="9"/>
@@ -6176,7 +6181,7 @@
       <c r="E657" s="9"/>
       <c r="F657" s="11"/>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="9"/>
       <c r="B658" s="10"/>
       <c r="C658" s="9"/>
@@ -6184,7 +6189,7 @@
       <c r="E658" s="9"/>
       <c r="F658" s="11"/>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="9"/>
       <c r="B659" s="10"/>
       <c r="C659" s="9"/>
@@ -6192,7 +6197,7 @@
       <c r="E659" s="9"/>
       <c r="F659" s="11"/>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="9"/>
       <c r="B660" s="10"/>
       <c r="C660" s="9"/>
@@ -6200,7 +6205,7 @@
       <c r="E660" s="9"/>
       <c r="F660" s="11"/>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="9"/>
       <c r="B661" s="10"/>
       <c r="C661" s="9"/>
@@ -6208,7 +6213,7 @@
       <c r="E661" s="9"/>
       <c r="F661" s="11"/>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="9"/>
       <c r="B662" s="10"/>
       <c r="C662" s="9"/>
@@ -6216,7 +6221,7 @@
       <c r="E662" s="9"/>
       <c r="F662" s="11"/>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="9"/>
       <c r="B663" s="10"/>
       <c r="C663" s="9"/>
@@ -6224,7 +6229,7 @@
       <c r="E663" s="9"/>
       <c r="F663" s="11"/>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="9"/>
       <c r="B664" s="10"/>
       <c r="C664" s="9"/>
@@ -6232,7 +6237,7 @@
       <c r="E664" s="9"/>
       <c r="F664" s="11"/>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="9"/>
       <c r="B665" s="10"/>
       <c r="C665" s="9"/>
@@ -6240,7 +6245,7 @@
       <c r="E665" s="9"/>
       <c r="F665" s="11"/>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="9"/>
       <c r="B666" s="10"/>
       <c r="C666" s="9"/>
@@ -6248,7 +6253,7 @@
       <c r="E666" s="9"/>
       <c r="F666" s="11"/>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="9"/>
       <c r="B667" s="10"/>
       <c r="C667" s="9"/>
@@ -6256,7 +6261,7 @@
       <c r="E667" s="9"/>
       <c r="F667" s="11"/>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="9"/>
       <c r="B668" s="10"/>
       <c r="C668" s="9"/>
@@ -6264,7 +6269,7 @@
       <c r="E668" s="9"/>
       <c r="F668" s="11"/>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="9"/>
       <c r="B669" s="10"/>
       <c r="C669" s="9"/>
@@ -6272,7 +6277,7 @@
       <c r="E669" s="9"/>
       <c r="F669" s="11"/>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="9"/>
       <c r="B670" s="10"/>
       <c r="C670" s="9"/>
@@ -6280,7 +6285,7 @@
       <c r="E670" s="9"/>
       <c r="F670" s="11"/>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="9"/>
       <c r="B671" s="10"/>
       <c r="C671" s="9"/>
@@ -6288,7 +6293,7 @@
       <c r="E671" s="9"/>
       <c r="F671" s="11"/>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="9"/>
       <c r="B672" s="10"/>
       <c r="C672" s="9"/>
@@ -6296,7 +6301,7 @@
       <c r="E672" s="9"/>
       <c r="F672" s="11"/>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="9"/>
       <c r="B673" s="10"/>
       <c r="C673" s="9"/>
@@ -6304,7 +6309,7 @@
       <c r="E673" s="9"/>
       <c r="F673" s="11"/>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="9"/>
       <c r="B674" s="10"/>
       <c r="C674" s="9"/>
@@ -6312,7 +6317,7 @@
       <c r="E674" s="9"/>
       <c r="F674" s="11"/>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="9"/>
       <c r="B675" s="10"/>
       <c r="C675" s="9"/>
@@ -6320,7 +6325,7 @@
       <c r="E675" s="9"/>
       <c r="F675" s="11"/>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="9"/>
       <c r="B676" s="10"/>
       <c r="C676" s="9"/>
@@ -6328,7 +6333,7 @@
       <c r="E676" s="9"/>
       <c r="F676" s="11"/>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="9"/>
       <c r="B677" s="10"/>
       <c r="C677" s="9"/>
@@ -6336,7 +6341,7 @@
       <c r="E677" s="9"/>
       <c r="F677" s="11"/>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="9"/>
       <c r="B678" s="10"/>
       <c r="C678" s="9"/>
@@ -6344,7 +6349,7 @@
       <c r="E678" s="9"/>
       <c r="F678" s="11"/>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="9"/>
       <c r="B679" s="10"/>
       <c r="C679" s="9"/>
@@ -6352,7 +6357,7 @@
       <c r="E679" s="9"/>
       <c r="F679" s="11"/>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="9"/>
       <c r="B680" s="10"/>
       <c r="C680" s="9"/>
@@ -6360,7 +6365,7 @@
       <c r="E680" s="9"/>
       <c r="F680" s="11"/>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="9"/>
       <c r="B681" s="10"/>
       <c r="C681" s="9"/>
@@ -6368,7 +6373,7 @@
       <c r="E681" s="9"/>
       <c r="F681" s="11"/>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="9"/>
       <c r="B682" s="10"/>
       <c r="C682" s="9"/>
@@ -6376,7 +6381,7 @@
       <c r="E682" s="9"/>
       <c r="F682" s="11"/>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="9"/>
       <c r="B683" s="10"/>
       <c r="C683" s="9"/>
@@ -6384,7 +6389,7 @@
       <c r="E683" s="9"/>
       <c r="F683" s="11"/>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="9"/>
       <c r="B684" s="10"/>
       <c r="C684" s="9"/>
@@ -6392,7 +6397,7 @@
       <c r="E684" s="9"/>
       <c r="F684" s="11"/>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="9"/>
       <c r="B685" s="10"/>
       <c r="C685" s="9"/>
@@ -6400,7 +6405,7 @@
       <c r="E685" s="9"/>
       <c r="F685" s="11"/>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="9"/>
       <c r="B686" s="10"/>
       <c r="C686" s="9"/>
@@ -6408,7 +6413,7 @@
       <c r="E686" s="9"/>
       <c r="F686" s="11"/>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="9"/>
       <c r="B687" s="10"/>
       <c r="C687" s="9"/>
@@ -6416,7 +6421,7 @@
       <c r="E687" s="9"/>
       <c r="F687" s="11"/>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="9"/>
       <c r="B688" s="10"/>
       <c r="C688" s="9"/>
@@ -6424,7 +6429,7 @@
       <c r="E688" s="9"/>
       <c r="F688" s="11"/>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="9"/>
       <c r="B689" s="10"/>
       <c r="C689" s="9"/>
@@ -6432,7 +6437,7 @@
       <c r="E689" s="9"/>
       <c r="F689" s="11"/>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="9"/>
       <c r="B690" s="10"/>
       <c r="C690" s="9"/>
@@ -6440,7 +6445,7 @@
       <c r="E690" s="9"/>
       <c r="F690" s="11"/>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="9"/>
       <c r="B691" s="10"/>
       <c r="C691" s="9"/>
@@ -6448,7 +6453,7 @@
       <c r="E691" s="9"/>
       <c r="F691" s="11"/>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="9"/>
       <c r="B692" s="10"/>
       <c r="C692" s="9"/>
@@ -6456,7 +6461,7 @@
       <c r="E692" s="9"/>
       <c r="F692" s="11"/>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="9"/>
       <c r="B693" s="10"/>
       <c r="C693" s="9"/>
@@ -6464,7 +6469,7 @@
       <c r="E693" s="9"/>
       <c r="F693" s="11"/>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="9"/>
       <c r="B694" s="10"/>
       <c r="C694" s="9"/>
@@ -6472,7 +6477,7 @@
       <c r="E694" s="9"/>
       <c r="F694" s="11"/>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="9"/>
       <c r="B695" s="10"/>
       <c r="C695" s="9"/>
@@ -6480,7 +6485,7 @@
       <c r="E695" s="9"/>
       <c r="F695" s="11"/>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="9"/>
       <c r="B696" s="10"/>
       <c r="C696" s="9"/>
@@ -6488,7 +6493,7 @@
       <c r="E696" s="9"/>
       <c r="F696" s="11"/>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="9"/>
       <c r="B697" s="10"/>
       <c r="C697" s="9"/>
@@ -6496,7 +6501,7 @@
       <c r="E697" s="9"/>
       <c r="F697" s="11"/>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="9"/>
       <c r="B698" s="10"/>
       <c r="C698" s="9"/>
@@ -6504,7 +6509,7 @@
       <c r="E698" s="9"/>
       <c r="F698" s="11"/>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="9"/>
       <c r="B699" s="10"/>
       <c r="C699" s="9"/>
@@ -6512,7 +6517,7 @@
       <c r="E699" s="9"/>
       <c r="F699" s="11"/>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="9"/>
       <c r="B700" s="10"/>
       <c r="C700" s="9"/>
@@ -6520,7 +6525,7 @@
       <c r="E700" s="9"/>
       <c r="F700" s="11"/>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="9"/>
       <c r="B701" s="10"/>
       <c r="C701" s="9"/>
@@ -6528,7 +6533,7 @@
       <c r="E701" s="9"/>
       <c r="F701" s="11"/>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="9"/>
       <c r="B702" s="10"/>
       <c r="C702" s="9"/>
@@ -6536,7 +6541,7 @@
       <c r="E702" s="9"/>
       <c r="F702" s="11"/>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="9"/>
       <c r="B703" s="10"/>
       <c r="C703" s="9"/>
@@ -6544,7 +6549,7 @@
       <c r="E703" s="9"/>
       <c r="F703" s="11"/>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="9"/>
       <c r="B704" s="10"/>
       <c r="C704" s="9"/>
@@ -6552,7 +6557,7 @@
       <c r="E704" s="9"/>
       <c r="F704" s="11"/>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="9"/>
       <c r="B705" s="10"/>
       <c r="C705" s="9"/>
@@ -6560,7 +6565,7 @@
       <c r="E705" s="9"/>
       <c r="F705" s="11"/>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="9"/>
       <c r="B706" s="10"/>
       <c r="C706" s="9"/>
@@ -6568,7 +6573,7 @@
       <c r="E706" s="9"/>
       <c r="F706" s="11"/>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="9"/>
       <c r="B707" s="10"/>
       <c r="C707" s="9"/>
@@ -6576,7 +6581,7 @@
       <c r="E707" s="9"/>
       <c r="F707" s="11"/>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="9"/>
       <c r="B708" s="10"/>
       <c r="C708" s="9"/>
@@ -6584,7 +6589,7 @@
       <c r="E708" s="9"/>
       <c r="F708" s="11"/>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="9"/>
       <c r="B709" s="10"/>
       <c r="C709" s="9"/>
@@ -6592,7 +6597,7 @@
       <c r="E709" s="9"/>
       <c r="F709" s="11"/>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="9"/>
       <c r="B710" s="10"/>
       <c r="C710" s="9"/>
@@ -6600,7 +6605,7 @@
       <c r="E710" s="9"/>
       <c r="F710" s="11"/>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="9"/>
       <c r="B711" s="10"/>
       <c r="C711" s="9"/>
@@ -6608,7 +6613,7 @@
       <c r="E711" s="9"/>
       <c r="F711" s="11"/>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="9"/>
       <c r="B712" s="10"/>
       <c r="C712" s="9"/>
@@ -6616,7 +6621,7 @@
       <c r="E712" s="9"/>
       <c r="F712" s="11"/>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="9"/>
       <c r="B713" s="10"/>
       <c r="C713" s="9"/>
@@ -6624,7 +6629,7 @@
       <c r="E713" s="9"/>
       <c r="F713" s="11"/>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="9"/>
       <c r="B714" s="10"/>
       <c r="C714" s="9"/>
@@ -6632,7 +6637,7 @@
       <c r="E714" s="9"/>
       <c r="F714" s="11"/>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="9"/>
       <c r="B715" s="10"/>
       <c r="C715" s="9"/>
@@ -6640,7 +6645,7 @@
       <c r="E715" s="9"/>
       <c r="F715" s="11"/>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="9"/>
       <c r="B716" s="10"/>
       <c r="C716" s="9"/>
@@ -6648,7 +6653,7 @@
       <c r="E716" s="9"/>
       <c r="F716" s="11"/>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="9"/>
       <c r="B717" s="10"/>
       <c r="C717" s="9"/>
@@ -6656,7 +6661,7 @@
       <c r="E717" s="9"/>
       <c r="F717" s="11"/>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="9"/>
       <c r="B718" s="10"/>
       <c r="C718" s="9"/>
@@ -6664,7 +6669,7 @@
       <c r="E718" s="9"/>
       <c r="F718" s="11"/>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="9"/>
       <c r="B719" s="10"/>
       <c r="C719" s="9"/>
@@ -6672,7 +6677,7 @@
       <c r="E719" s="9"/>
       <c r="F719" s="11"/>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="9"/>
       <c r="B720" s="10"/>
       <c r="C720" s="9"/>
@@ -6680,7 +6685,7 @@
       <c r="E720" s="9"/>
       <c r="F720" s="11"/>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="9"/>
       <c r="B721" s="10"/>
       <c r="C721" s="9"/>
@@ -6688,7 +6693,7 @@
       <c r="E721" s="9"/>
       <c r="F721" s="11"/>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="9"/>
       <c r="B722" s="10"/>
       <c r="C722" s="9"/>
@@ -6696,7 +6701,7 @@
       <c r="E722" s="9"/>
       <c r="F722" s="11"/>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="9"/>
       <c r="B723" s="10"/>
       <c r="C723" s="9"/>
@@ -6704,7 +6709,7 @@
       <c r="E723" s="9"/>
       <c r="F723" s="11"/>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="9"/>
       <c r="B724" s="10"/>
       <c r="C724" s="9"/>
@@ -6712,7 +6717,7 @@
       <c r="E724" s="9"/>
       <c r="F724" s="11"/>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="9"/>
       <c r="B725" s="10"/>
       <c r="C725" s="9"/>
@@ -6720,7 +6725,7 @@
       <c r="E725" s="9"/>
       <c r="F725" s="11"/>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="9"/>
       <c r="B726" s="10"/>
       <c r="C726" s="9"/>
@@ -6728,7 +6733,7 @@
       <c r="E726" s="9"/>
       <c r="F726" s="11"/>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="9"/>
       <c r="B727" s="10"/>
       <c r="C727" s="9"/>
@@ -6736,7 +6741,7 @@
       <c r="E727" s="9"/>
       <c r="F727" s="11"/>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="9"/>
       <c r="B728" s="10"/>
       <c r="C728" s="9"/>
@@ -6744,7 +6749,7 @@
       <c r="E728" s="9"/>
       <c r="F728" s="11"/>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="9"/>
       <c r="B729" s="10"/>
       <c r="C729" s="9"/>
@@ -6752,7 +6757,7 @@
       <c r="E729" s="9"/>
       <c r="F729" s="11"/>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="9"/>
       <c r="B730" s="10"/>
       <c r="C730" s="9"/>
@@ -6760,7 +6765,7 @@
       <c r="E730" s="9"/>
       <c r="F730" s="11"/>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="9"/>
       <c r="B731" s="10"/>
       <c r="C731" s="9"/>
@@ -6768,7 +6773,7 @@
       <c r="E731" s="9"/>
       <c r="F731" s="11"/>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="9"/>
       <c r="B732" s="10"/>
       <c r="C732" s="9"/>
@@ -6776,7 +6781,7 @@
       <c r="E732" s="9"/>
       <c r="F732" s="11"/>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="9"/>
       <c r="B733" s="10"/>
       <c r="C733" s="9"/>
@@ -6784,7 +6789,7 @@
       <c r="E733" s="9"/>
       <c r="F733" s="11"/>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="9"/>
       <c r="B734" s="10"/>
       <c r="C734" s="9"/>
@@ -6792,7 +6797,7 @@
       <c r="E734" s="9"/>
       <c r="F734" s="11"/>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="9"/>
       <c r="B735" s="10"/>
       <c r="C735" s="9"/>
@@ -6800,7 +6805,7 @@
       <c r="E735" s="9"/>
       <c r="F735" s="11"/>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="9"/>
       <c r="B736" s="10"/>
       <c r="C736" s="9"/>
@@ -6808,7 +6813,7 @@
       <c r="E736" s="9"/>
       <c r="F736" s="11"/>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="9"/>
       <c r="B737" s="10"/>
       <c r="C737" s="9"/>
@@ -6816,7 +6821,7 @@
       <c r="E737" s="9"/>
       <c r="F737" s="11"/>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="9"/>
       <c r="B738" s="10"/>
       <c r="C738" s="9"/>
@@ -6824,7 +6829,7 @@
       <c r="E738" s="9"/>
       <c r="F738" s="11"/>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="9"/>
       <c r="B739" s="10"/>
       <c r="C739" s="9"/>
@@ -6832,7 +6837,7 @@
       <c r="E739" s="9"/>
       <c r="F739" s="11"/>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="9"/>
       <c r="B740" s="10"/>
       <c r="C740" s="9"/>
@@ -6840,7 +6845,7 @@
       <c r="E740" s="9"/>
       <c r="F740" s="11"/>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="9"/>
       <c r="B741" s="10"/>
       <c r="C741" s="9"/>
@@ -6848,7 +6853,7 @@
       <c r="E741" s="9"/>
       <c r="F741" s="11"/>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="9"/>
       <c r="B742" s="10"/>
       <c r="C742" s="9"/>
@@ -6856,7 +6861,7 @@
       <c r="E742" s="9"/>
       <c r="F742" s="11"/>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="9"/>
       <c r="B743" s="10"/>
       <c r="C743" s="9"/>
@@ -6864,7 +6869,7 @@
       <c r="E743" s="9"/>
       <c r="F743" s="11"/>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="9"/>
       <c r="B744" s="10"/>
       <c r="C744" s="9"/>
@@ -6872,7 +6877,7 @@
       <c r="E744" s="9"/>
       <c r="F744" s="11"/>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="9"/>
       <c r="B745" s="10"/>
       <c r="C745" s="9"/>
@@ -6880,7 +6885,7 @@
       <c r="E745" s="9"/>
       <c r="F745" s="11"/>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="9"/>
       <c r="B746" s="10"/>
       <c r="C746" s="9"/>
@@ -6888,7 +6893,7 @@
       <c r="E746" s="9"/>
       <c r="F746" s="11"/>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="9"/>
       <c r="B747" s="10"/>
       <c r="C747" s="9"/>
@@ -6896,7 +6901,7 @@
       <c r="E747" s="9"/>
       <c r="F747" s="11"/>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="9"/>
       <c r="B748" s="10"/>
       <c r="C748" s="9"/>
@@ -6904,7 +6909,7 @@
       <c r="E748" s="9"/>
       <c r="F748" s="11"/>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="9"/>
       <c r="B749" s="10"/>
       <c r="C749" s="9"/>
@@ -6912,7 +6917,7 @@
       <c r="E749" s="9"/>
       <c r="F749" s="11"/>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="9"/>
       <c r="B750" s="10"/>
       <c r="C750" s="9"/>
@@ -6920,7 +6925,7 @@
       <c r="E750" s="9"/>
       <c r="F750" s="11"/>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="9"/>
       <c r="B751" s="10"/>
       <c r="C751" s="9"/>
@@ -6928,7 +6933,7 @@
       <c r="E751" s="9"/>
       <c r="F751" s="11"/>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="9"/>
       <c r="B752" s="10"/>
       <c r="C752" s="9"/>
@@ -6936,7 +6941,7 @@
       <c r="E752" s="9"/>
       <c r="F752" s="11"/>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="9"/>
       <c r="B753" s="10"/>
       <c r="C753" s="9"/>
@@ -6944,7 +6949,7 @@
       <c r="E753" s="9"/>
       <c r="F753" s="11"/>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="9"/>
       <c r="B754" s="10"/>
       <c r="C754" s="9"/>
@@ -6952,7 +6957,7 @@
       <c r="E754" s="9"/>
       <c r="F754" s="11"/>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="9"/>
       <c r="B755" s="10"/>
       <c r="C755" s="9"/>
@@ -6960,7 +6965,7 @@
       <c r="E755" s="9"/>
       <c r="F755" s="11"/>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="9"/>
       <c r="B756" s="10"/>
       <c r="C756" s="9"/>
@@ -6968,7 +6973,7 @@
       <c r="E756" s="9"/>
       <c r="F756" s="11"/>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="9"/>
       <c r="B757" s="10"/>
       <c r="C757" s="9"/>
@@ -6976,7 +6981,7 @@
       <c r="E757" s="9"/>
       <c r="F757" s="11"/>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="9"/>
       <c r="B758" s="10"/>
       <c r="C758" s="9"/>
@@ -6984,7 +6989,7 @@
       <c r="E758" s="9"/>
       <c r="F758" s="11"/>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="9"/>
       <c r="B759" s="10"/>
       <c r="C759" s="9"/>
@@ -6992,7 +6997,7 @@
       <c r="E759" s="9"/>
       <c r="F759" s="11"/>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="9"/>
       <c r="B760" s="10"/>
       <c r="C760" s="9"/>
@@ -7000,7 +7005,7 @@
       <c r="E760" s="9"/>
       <c r="F760" s="11"/>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="9"/>
       <c r="B761" s="10"/>
       <c r="C761" s="9"/>
@@ -7008,7 +7013,7 @@
       <c r="E761" s="9"/>
       <c r="F761" s="11"/>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="9"/>
       <c r="B762" s="10"/>
       <c r="C762" s="9"/>
@@ -7016,7 +7021,7 @@
       <c r="E762" s="9"/>
       <c r="F762" s="11"/>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="9"/>
       <c r="B763" s="10"/>
       <c r="C763" s="9"/>
@@ -7024,7 +7029,7 @@
       <c r="E763" s="9"/>
       <c r="F763" s="11"/>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="9"/>
       <c r="B764" s="10"/>
       <c r="C764" s="9"/>
@@ -7032,7 +7037,7 @@
       <c r="E764" s="9"/>
       <c r="F764" s="11"/>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="9"/>
       <c r="B765" s="10"/>
       <c r="C765" s="9"/>
@@ -7040,7 +7045,7 @@
       <c r="E765" s="9"/>
       <c r="F765" s="11"/>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="9"/>
       <c r="B766" s="10"/>
       <c r="C766" s="9"/>
@@ -7048,7 +7053,7 @@
       <c r="E766" s="9"/>
       <c r="F766" s="11"/>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="9"/>
       <c r="B767" s="10"/>
       <c r="C767" s="9"/>
@@ -7056,7 +7061,7 @@
       <c r="E767" s="9"/>
       <c r="F767" s="11"/>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="9"/>
       <c r="B768" s="10"/>
       <c r="C768" s="9"/>
@@ -7064,7 +7069,7 @@
       <c r="E768" s="9"/>
       <c r="F768" s="11"/>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="9"/>
       <c r="B769" s="10"/>
       <c r="C769" s="9"/>
@@ -7072,7 +7077,7 @@
       <c r="E769" s="9"/>
       <c r="F769" s="11"/>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="9"/>
       <c r="B770" s="10"/>
       <c r="C770" s="9"/>
@@ -7080,7 +7085,7 @@
       <c r="E770" s="9"/>
       <c r="F770" s="11"/>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="9"/>
       <c r="B771" s="10"/>
       <c r="C771" s="9"/>
@@ -7088,7 +7093,7 @@
       <c r="E771" s="9"/>
       <c r="F771" s="11"/>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="9"/>
       <c r="B772" s="10"/>
       <c r="C772" s="9"/>
@@ -7096,7 +7101,7 @@
       <c r="E772" s="9"/>
       <c r="F772" s="11"/>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="9"/>
       <c r="B773" s="10"/>
       <c r="C773" s="9"/>
@@ -7104,7 +7109,7 @@
       <c r="E773" s="9"/>
       <c r="F773" s="11"/>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="9"/>
       <c r="B774" s="10"/>
       <c r="C774" s="9"/>
@@ -7112,7 +7117,7 @@
       <c r="E774" s="9"/>
       <c r="F774" s="11"/>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="9"/>
       <c r="B775" s="10"/>
       <c r="C775" s="9"/>
@@ -7120,7 +7125,7 @@
       <c r="E775" s="9"/>
       <c r="F775" s="11"/>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="9"/>
       <c r="B776" s="10"/>
       <c r="C776" s="9"/>
@@ -7128,7 +7133,7 @@
       <c r="E776" s="9"/>
       <c r="F776" s="11"/>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="9"/>
       <c r="B777" s="10"/>
       <c r="C777" s="9"/>
@@ -7136,7 +7141,7 @@
       <c r="E777" s="9"/>
       <c r="F777" s="11"/>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="9"/>
       <c r="B778" s="10"/>
       <c r="C778" s="9"/>
@@ -7144,7 +7149,7 @@
       <c r="E778" s="9"/>
       <c r="F778" s="11"/>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="9"/>
       <c r="B779" s="10"/>
       <c r="C779" s="9"/>
@@ -7152,7 +7157,7 @@
       <c r="E779" s="9"/>
       <c r="F779" s="11"/>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="9"/>
       <c r="B780" s="10"/>
       <c r="C780" s="9"/>
@@ -7160,7 +7165,7 @@
       <c r="E780" s="9"/>
       <c r="F780" s="11"/>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="9"/>
       <c r="B781" s="10"/>
       <c r="C781" s="9"/>
@@ -7168,7 +7173,7 @@
       <c r="E781" s="9"/>
       <c r="F781" s="11"/>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="9"/>
       <c r="B782" s="10"/>
       <c r="C782" s="9"/>
@@ -7176,7 +7181,7 @@
       <c r="E782" s="9"/>
       <c r="F782" s="11"/>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="9"/>
       <c r="B783" s="10"/>
       <c r="C783" s="9"/>
@@ -7184,7 +7189,7 @@
       <c r="E783" s="9"/>
       <c r="F783" s="11"/>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="9"/>
       <c r="B784" s="10"/>
       <c r="C784" s="9"/>
@@ -7192,7 +7197,7 @@
       <c r="E784" s="9"/>
       <c r="F784" s="11"/>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="9"/>
       <c r="B785" s="10"/>
       <c r="C785" s="9"/>
@@ -7200,7 +7205,7 @@
       <c r="E785" s="9"/>
       <c r="F785" s="11"/>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="9"/>
       <c r="B786" s="10"/>
       <c r="C786" s="9"/>
@@ -7208,7 +7213,7 @@
       <c r="E786" s="9"/>
       <c r="F786" s="11"/>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="9"/>
       <c r="B787" s="10"/>
       <c r="C787" s="9"/>
@@ -7216,7 +7221,7 @@
       <c r="E787" s="9"/>
       <c r="F787" s="11"/>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="9"/>
       <c r="B788" s="10"/>
       <c r="C788" s="9"/>
@@ -7224,7 +7229,7 @@
       <c r="E788" s="9"/>
       <c r="F788" s="11"/>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="9"/>
       <c r="B789" s="10"/>
       <c r="C789" s="9"/>
@@ -7232,7 +7237,7 @@
       <c r="E789" s="9"/>
       <c r="F789" s="11"/>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="9"/>
       <c r="B790" s="10"/>
       <c r="C790" s="9"/>
@@ -7240,7 +7245,7 @@
       <c r="E790" s="9"/>
       <c r="F790" s="11"/>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="9"/>
       <c r="B791" s="10"/>
       <c r="C791" s="9"/>
@@ -7248,7 +7253,7 @@
       <c r="E791" s="9"/>
       <c r="F791" s="11"/>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="9"/>
       <c r="B792" s="10"/>
       <c r="C792" s="9"/>
@@ -7256,7 +7261,7 @@
       <c r="E792" s="9"/>
       <c r="F792" s="11"/>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="9"/>
       <c r="B793" s="10"/>
       <c r="C793" s="9"/>
@@ -7264,7 +7269,7 @@
       <c r="E793" s="9"/>
       <c r="F793" s="11"/>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="9"/>
       <c r="B794" s="10"/>
       <c r="C794" s="9"/>
@@ -7272,7 +7277,7 @@
       <c r="E794" s="9"/>
       <c r="F794" s="11"/>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="9"/>
       <c r="B795" s="10"/>
       <c r="C795" s="9"/>
@@ -7280,7 +7285,7 @@
       <c r="E795" s="9"/>
       <c r="F795" s="11"/>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="9"/>
       <c r="B796" s="10"/>
       <c r="C796" s="9"/>
@@ -7288,7 +7293,7 @@
       <c r="E796" s="9"/>
       <c r="F796" s="11"/>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="9"/>
       <c r="B797" s="10"/>
       <c r="C797" s="9"/>
@@ -7296,7 +7301,7 @@
       <c r="E797" s="9"/>
       <c r="F797" s="11"/>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="9"/>
       <c r="B798" s="10"/>
       <c r="C798" s="9"/>
@@ -7304,7 +7309,7 @@
       <c r="E798" s="9"/>
       <c r="F798" s="11"/>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="9"/>
       <c r="B799" s="10"/>
       <c r="C799" s="9"/>
@@ -7312,7 +7317,7 @@
       <c r="E799" s="9"/>
       <c r="F799" s="11"/>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="9"/>
       <c r="B800" s="10"/>
       <c r="C800" s="9"/>
@@ -7320,7 +7325,7 @@
       <c r="E800" s="9"/>
       <c r="F800" s="11"/>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="9"/>
       <c r="B801" s="10"/>
       <c r="C801" s="9"/>
@@ -7328,7 +7333,7 @@
       <c r="E801" s="9"/>
       <c r="F801" s="11"/>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="9"/>
       <c r="B802" s="10"/>
       <c r="C802" s="9"/>
@@ -7336,7 +7341,7 @@
       <c r="E802" s="9"/>
       <c r="F802" s="11"/>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="9"/>
       <c r="B803" s="10"/>
       <c r="C803" s="9"/>
@@ -7344,7 +7349,7 @@
       <c r="E803" s="9"/>
       <c r="F803" s="11"/>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="9"/>
       <c r="B804" s="10"/>
       <c r="C804" s="9"/>
@@ -7352,7 +7357,7 @@
       <c r="E804" s="9"/>
       <c r="F804" s="11"/>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="9"/>
       <c r="B805" s="10"/>
       <c r="C805" s="9"/>
@@ -7360,7 +7365,7 @@
       <c r="E805" s="9"/>
       <c r="F805" s="11"/>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="9"/>
       <c r="B806" s="10"/>
       <c r="C806" s="9"/>
@@ -7368,7 +7373,7 @@
       <c r="E806" s="9"/>
       <c r="F806" s="11"/>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="9"/>
       <c r="B807" s="10"/>
       <c r="C807" s="9"/>
@@ -7376,7 +7381,7 @@
       <c r="E807" s="9"/>
       <c r="F807" s="11"/>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="9"/>
       <c r="B808" s="10"/>
       <c r="C808" s="9"/>
@@ -7384,7 +7389,7 @@
       <c r="E808" s="9"/>
       <c r="F808" s="11"/>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="9"/>
       <c r="B809" s="10"/>
       <c r="C809" s="9"/>
@@ -7392,7 +7397,7 @@
       <c r="E809" s="9"/>
       <c r="F809" s="11"/>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="9"/>
       <c r="B810" s="10"/>
       <c r="C810" s="9"/>
@@ -7400,7 +7405,7 @@
       <c r="E810" s="9"/>
       <c r="F810" s="11"/>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="9"/>
       <c r="B811" s="10"/>
       <c r="C811" s="9"/>
@@ -7408,7 +7413,7 @@
       <c r="E811" s="9"/>
       <c r="F811" s="11"/>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="9"/>
       <c r="B812" s="10"/>
       <c r="C812" s="9"/>
@@ -7416,7 +7421,7 @@
       <c r="E812" s="9"/>
       <c r="F812" s="11"/>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="9"/>
       <c r="B813" s="10"/>
       <c r="C813" s="9"/>
@@ -7424,7 +7429,7 @@
       <c r="E813" s="9"/>
       <c r="F813" s="11"/>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="9"/>
       <c r="B814" s="10"/>
       <c r="C814" s="9"/>
@@ -7432,7 +7437,7 @@
       <c r="E814" s="9"/>
       <c r="F814" s="11"/>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="9"/>
       <c r="B815" s="10"/>
       <c r="C815" s="9"/>
@@ -7440,7 +7445,7 @@
       <c r="E815" s="9"/>
       <c r="F815" s="11"/>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="9"/>
       <c r="B816" s="10"/>
       <c r="C816" s="9"/>
@@ -7448,7 +7453,7 @@
       <c r="E816" s="9"/>
       <c r="F816" s="11"/>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="9"/>
       <c r="B817" s="10"/>
       <c r="C817" s="9"/>
@@ -7456,7 +7461,7 @@
       <c r="E817" s="9"/>
       <c r="F817" s="11"/>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="9"/>
       <c r="B818" s="10"/>
       <c r="C818" s="9"/>
@@ -7464,7 +7469,7 @@
       <c r="E818" s="9"/>
       <c r="F818" s="11"/>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="9"/>
       <c r="B819" s="10"/>
       <c r="C819" s="9"/>
@@ -7472,7 +7477,7 @@
       <c r="E819" s="9"/>
       <c r="F819" s="11"/>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="9"/>
       <c r="B820" s="10"/>
       <c r="C820" s="9"/>
@@ -7480,7 +7485,7 @@
       <c r="E820" s="9"/>
       <c r="F820" s="11"/>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="9"/>
       <c r="B821" s="10"/>
       <c r="C821" s="9"/>
@@ -7488,7 +7493,7 @@
       <c r="E821" s="9"/>
       <c r="F821" s="11"/>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="9"/>
       <c r="B822" s="10"/>
       <c r="C822" s="9"/>
@@ -7496,7 +7501,7 @@
       <c r="E822" s="9"/>
       <c r="F822" s="11"/>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="9"/>
       <c r="B823" s="10"/>
       <c r="C823" s="9"/>
@@ -7504,7 +7509,7 @@
       <c r="E823" s="9"/>
       <c r="F823" s="11"/>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="9"/>
       <c r="B824" s="10"/>
       <c r="C824" s="9"/>
@@ -7512,7 +7517,7 @@
       <c r="E824" s="9"/>
       <c r="F824" s="11"/>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="9"/>
       <c r="B825" s="10"/>
       <c r="C825" s="9"/>
@@ -7520,7 +7525,7 @@
       <c r="E825" s="9"/>
       <c r="F825" s="11"/>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="9"/>
       <c r="B826" s="10"/>
       <c r="C826" s="9"/>
@@ -7528,7 +7533,7 @@
       <c r="E826" s="9"/>
       <c r="F826" s="11"/>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="9"/>
       <c r="B827" s="10"/>
       <c r="C827" s="9"/>
@@ -7536,7 +7541,7 @@
       <c r="E827" s="9"/>
       <c r="F827" s="11"/>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="9"/>
       <c r="B828" s="10"/>
       <c r="C828" s="9"/>
@@ -7544,7 +7549,7 @@
       <c r="E828" s="9"/>
       <c r="F828" s="11"/>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="9"/>
       <c r="B829" s="10"/>
       <c r="C829" s="9"/>
@@ -7552,7 +7557,7 @@
       <c r="E829" s="9"/>
       <c r="F829" s="11"/>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="9"/>
       <c r="B830" s="10"/>
       <c r="C830" s="9"/>
@@ -7560,7 +7565,7 @@
       <c r="E830" s="9"/>
       <c r="F830" s="11"/>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="9"/>
       <c r="B831" s="10"/>
       <c r="C831" s="9"/>
@@ -7568,7 +7573,7 @@
       <c r="E831" s="9"/>
       <c r="F831" s="11"/>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="9"/>
       <c r="B832" s="10"/>
       <c r="C832" s="9"/>
@@ -7576,7 +7581,7 @@
       <c r="E832" s="9"/>
       <c r="F832" s="11"/>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="9"/>
       <c r="B833" s="10"/>
       <c r="C833" s="9"/>
@@ -7584,7 +7589,7 @@
       <c r="E833" s="9"/>
       <c r="F833" s="11"/>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="9"/>
       <c r="B834" s="10"/>
       <c r="C834" s="9"/>
@@ -7592,7 +7597,7 @@
       <c r="E834" s="9"/>
       <c r="F834" s="11"/>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="9"/>
       <c r="B835" s="10"/>
       <c r="C835" s="9"/>
@@ -7600,7 +7605,7 @@
       <c r="E835" s="9"/>
       <c r="F835" s="11"/>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="9"/>
       <c r="B836" s="10"/>
       <c r="C836" s="9"/>
@@ -7608,7 +7613,7 @@
       <c r="E836" s="9"/>
       <c r="F836" s="11"/>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="9"/>
       <c r="B837" s="10"/>
       <c r="C837" s="9"/>
@@ -7616,7 +7621,7 @@
       <c r="E837" s="9"/>
       <c r="F837" s="11"/>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="9"/>
       <c r="B838" s="10"/>
       <c r="C838" s="9"/>
@@ -7624,7 +7629,7 @@
       <c r="E838" s="9"/>
       <c r="F838" s="11"/>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="9"/>
       <c r="B839" s="10"/>
       <c r="C839" s="9"/>
@@ -7632,7 +7637,7 @@
       <c r="E839" s="9"/>
       <c r="F839" s="11"/>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="9"/>
       <c r="B840" s="10"/>
       <c r="C840" s="9"/>
@@ -7640,7 +7645,7 @@
       <c r="E840" s="9"/>
       <c r="F840" s="11"/>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="9"/>
       <c r="B841" s="10"/>
       <c r="C841" s="9"/>
@@ -7648,7 +7653,7 @@
       <c r="E841" s="9"/>
       <c r="F841" s="11"/>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="9"/>
       <c r="B842" s="10"/>
       <c r="C842" s="9"/>
@@ -7656,7 +7661,7 @@
       <c r="E842" s="9"/>
       <c r="F842" s="11"/>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="9"/>
       <c r="B843" s="10"/>
       <c r="C843" s="9"/>
@@ -7664,7 +7669,7 @@
       <c r="E843" s="9"/>
       <c r="F843" s="11"/>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="9"/>
       <c r="B844" s="10"/>
       <c r="C844" s="9"/>
@@ -7672,7 +7677,7 @@
       <c r="E844" s="9"/>
       <c r="F844" s="11"/>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="9"/>
       <c r="B845" s="10"/>
       <c r="C845" s="9"/>
@@ -7680,7 +7685,7 @@
       <c r="E845" s="9"/>
       <c r="F845" s="11"/>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="9"/>
       <c r="B846" s="10"/>
       <c r="C846" s="9"/>
@@ -7688,7 +7693,7 @@
       <c r="E846" s="9"/>
       <c r="F846" s="11"/>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="9"/>
       <c r="B847" s="10"/>
       <c r="C847" s="9"/>
@@ -7696,7 +7701,7 @@
       <c r="E847" s="9"/>
       <c r="F847" s="11"/>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="9"/>
       <c r="B848" s="10"/>
       <c r="C848" s="9"/>
@@ -7704,7 +7709,7 @@
       <c r="E848" s="9"/>
       <c r="F848" s="11"/>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="9"/>
       <c r="B849" s="10"/>
       <c r="C849" s="9"/>
@@ -7712,7 +7717,7 @@
       <c r="E849" s="9"/>
       <c r="F849" s="11"/>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="9"/>
       <c r="B850" s="10"/>
       <c r="C850" s="9"/>
@@ -7720,7 +7725,7 @@
       <c r="E850" s="9"/>
       <c r="F850" s="11"/>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="9"/>
       <c r="B851" s="10"/>
       <c r="C851" s="9"/>
@@ -7728,7 +7733,7 @@
       <c r="E851" s="9"/>
       <c r="F851" s="11"/>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="9"/>
       <c r="B852" s="10"/>
       <c r="C852" s="9"/>
@@ -7736,7 +7741,7 @@
       <c r="E852" s="9"/>
       <c r="F852" s="11"/>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="9"/>
       <c r="B853" s="10"/>
       <c r="C853" s="9"/>
@@ -7744,7 +7749,7 @@
       <c r="E853" s="9"/>
       <c r="F853" s="11"/>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="9"/>
       <c r="B854" s="10"/>
       <c r="C854" s="9"/>
@@ -7752,7 +7757,7 @@
       <c r="E854" s="9"/>
       <c r="F854" s="11"/>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="9"/>
       <c r="B855" s="10"/>
       <c r="C855" s="9"/>
@@ -7760,7 +7765,7 @@
       <c r="E855" s="9"/>
       <c r="F855" s="11"/>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="9"/>
       <c r="B856" s="10"/>
       <c r="C856" s="9"/>
@@ -7768,7 +7773,7 @@
       <c r="E856" s="9"/>
       <c r="F856" s="11"/>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="9"/>
       <c r="B857" s="10"/>
       <c r="C857" s="9"/>
@@ -7776,7 +7781,7 @@
       <c r="E857" s="9"/>
       <c r="F857" s="11"/>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="9"/>
       <c r="B858" s="10"/>
       <c r="C858" s="9"/>
@@ -7784,7 +7789,7 @@
       <c r="E858" s="9"/>
       <c r="F858" s="11"/>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="9"/>
       <c r="B859" s="10"/>
       <c r="C859" s="9"/>
@@ -7792,7 +7797,7 @@
       <c r="E859" s="9"/>
       <c r="F859" s="11"/>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="9"/>
       <c r="B860" s="10"/>
       <c r="C860" s="9"/>
@@ -7800,7 +7805,7 @@
       <c r="E860" s="9"/>
       <c r="F860" s="11"/>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="9"/>
       <c r="B861" s="10"/>
       <c r="C861" s="9"/>
@@ -7808,7 +7813,7 @@
       <c r="E861" s="9"/>
       <c r="F861" s="11"/>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="9"/>
       <c r="B862" s="10"/>
       <c r="C862" s="9"/>
@@ -7816,7 +7821,7 @@
       <c r="E862" s="9"/>
       <c r="F862" s="11"/>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="9"/>
       <c r="B863" s="10"/>
       <c r="C863" s="9"/>
@@ -7824,7 +7829,7 @@
       <c r="E863" s="9"/>
       <c r="F863" s="11"/>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="9"/>
       <c r="B864" s="10"/>
       <c r="C864" s="9"/>
@@ -7832,7 +7837,7 @@
       <c r="E864" s="9"/>
       <c r="F864" s="11"/>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="9"/>
       <c r="B865" s="10"/>
       <c r="C865" s="9"/>
@@ -7840,7 +7845,7 @@
       <c r="E865" s="9"/>
       <c r="F865" s="11"/>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="9"/>
       <c r="B866" s="10"/>
       <c r="C866" s="9"/>
@@ -7848,7 +7853,7 @@
       <c r="E866" s="9"/>
       <c r="F866" s="11"/>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="9"/>
       <c r="B867" s="10"/>
       <c r="C867" s="9"/>
@@ -7856,7 +7861,7 @@
       <c r="E867" s="9"/>
       <c r="F867" s="11"/>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="9"/>
       <c r="B868" s="10"/>
       <c r="C868" s="9"/>
@@ -7864,7 +7869,7 @@
       <c r="E868" s="9"/>
       <c r="F868" s="11"/>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="9"/>
       <c r="B869" s="10"/>
       <c r="C869" s="9"/>
@@ -7872,7 +7877,7 @@
       <c r="E869" s="9"/>
       <c r="F869" s="11"/>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="9"/>
       <c r="B870" s="10"/>
       <c r="C870" s="9"/>
@@ -7880,7 +7885,7 @@
       <c r="E870" s="9"/>
       <c r="F870" s="11"/>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="9"/>
       <c r="B871" s="10"/>
       <c r="C871" s="9"/>
@@ -7888,7 +7893,7 @@
       <c r="E871" s="9"/>
       <c r="F871" s="11"/>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="9"/>
       <c r="B872" s="10"/>
       <c r="C872" s="9"/>
@@ -7896,7 +7901,7 @@
       <c r="E872" s="9"/>
       <c r="F872" s="11"/>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="9"/>
       <c r="B873" s="10"/>
       <c r="C873" s="9"/>
@@ -7904,7 +7909,7 @@
       <c r="E873" s="9"/>
       <c r="F873" s="11"/>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="9"/>
       <c r="B874" s="10"/>
       <c r="C874" s="9"/>
@@ -7912,7 +7917,7 @@
       <c r="E874" s="9"/>
       <c r="F874" s="11"/>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="9"/>
       <c r="B875" s="10"/>
       <c r="C875" s="9"/>
@@ -7920,7 +7925,7 @@
       <c r="E875" s="9"/>
       <c r="F875" s="11"/>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="9"/>
       <c r="B876" s="10"/>
       <c r="C876" s="9"/>
@@ -7928,7 +7933,7 @@
       <c r="E876" s="9"/>
       <c r="F876" s="11"/>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="9"/>
       <c r="B877" s="10"/>
       <c r="C877" s="9"/>
@@ -7936,7 +7941,7 @@
       <c r="E877" s="9"/>
       <c r="F877" s="11"/>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="9"/>
       <c r="B878" s="10"/>
       <c r="C878" s="9"/>
@@ -7944,7 +7949,7 @@
       <c r="E878" s="9"/>
       <c r="F878" s="11"/>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="9"/>
       <c r="B879" s="10"/>
       <c r="C879" s="9"/>
@@ -7952,7 +7957,7 @@
       <c r="E879" s="9"/>
       <c r="F879" s="11"/>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="9"/>
       <c r="B880" s="10"/>
       <c r="C880" s="9"/>
@@ -7960,7 +7965,7 @@
       <c r="E880" s="9"/>
       <c r="F880" s="11"/>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="9"/>
       <c r="B881" s="10"/>
       <c r="C881" s="9"/>
@@ -7968,7 +7973,7 @@
       <c r="E881" s="9"/>
       <c r="F881" s="11"/>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="9"/>
       <c r="B882" s="10"/>
       <c r="C882" s="9"/>
@@ -7976,7 +7981,7 @@
       <c r="E882" s="9"/>
       <c r="F882" s="11"/>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="9"/>
       <c r="B883" s="10"/>
       <c r="C883" s="9"/>
@@ -7984,7 +7989,7 @@
       <c r="E883" s="9"/>
       <c r="F883" s="11"/>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="9"/>
       <c r="B884" s="10"/>
       <c r="C884" s="9"/>
@@ -7992,7 +7997,7 @@
       <c r="E884" s="9"/>
       <c r="F884" s="11"/>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="9"/>
       <c r="B885" s="10"/>
       <c r="C885" s="9"/>
@@ -8000,7 +8005,7 @@
       <c r="E885" s="9"/>
       <c r="F885" s="11"/>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="9"/>
       <c r="B886" s="10"/>
       <c r="C886" s="9"/>
@@ -8008,7 +8013,7 @@
       <c r="E886" s="9"/>
       <c r="F886" s="11"/>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="9"/>
       <c r="B887" s="10"/>
       <c r="C887" s="9"/>
@@ -8016,7 +8021,7 @@
       <c r="E887" s="9"/>
       <c r="F887" s="11"/>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="9"/>
       <c r="B888" s="10"/>
       <c r="C888" s="9"/>
@@ -8024,7 +8029,7 @@
       <c r="E888" s="9"/>
       <c r="F888" s="11"/>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="9"/>
       <c r="B889" s="10"/>
       <c r="C889" s="9"/>
@@ -8032,7 +8037,7 @@
       <c r="E889" s="9"/>
       <c r="F889" s="11"/>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="9"/>
       <c r="B890" s="10"/>
       <c r="C890" s="9"/>
@@ -8040,7 +8045,7 @@
       <c r="E890" s="9"/>
       <c r="F890" s="11"/>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="9"/>
       <c r="B891" s="10"/>
       <c r="C891" s="9"/>
@@ -8048,7 +8053,7 @@
       <c r="E891" s="9"/>
       <c r="F891" s="11"/>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="9"/>
       <c r="B892" s="10"/>
       <c r="C892" s="9"/>
@@ -8056,7 +8061,7 @@
       <c r="E892" s="9"/>
       <c r="F892" s="11"/>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="9"/>
       <c r="B893" s="10"/>
       <c r="C893" s="9"/>
@@ -8064,7 +8069,7 @@
       <c r="E893" s="9"/>
       <c r="F893" s="11"/>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="9"/>
       <c r="B894" s="10"/>
       <c r="C894" s="9"/>
@@ -8072,7 +8077,7 @@
       <c r="E894" s="9"/>
       <c r="F894" s="11"/>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="9"/>
       <c r="B895" s="10"/>
       <c r="C895" s="9"/>
@@ -8080,7 +8085,7 @@
       <c r="E895" s="9"/>
       <c r="F895" s="11"/>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="9"/>
       <c r="B896" s="10"/>
       <c r="C896" s="9"/>
@@ -8088,7 +8093,7 @@
       <c r="E896" s="9"/>
       <c r="F896" s="11"/>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="9"/>
       <c r="B897" s="10"/>
       <c r="C897" s="9"/>
@@ -8096,7 +8101,7 @@
       <c r="E897" s="9"/>
       <c r="F897" s="11"/>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="9"/>
       <c r="B898" s="10"/>
       <c r="C898" s="9"/>
@@ -8104,7 +8109,7 @@
       <c r="E898" s="9"/>
       <c r="F898" s="11"/>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="9"/>
       <c r="B899" s="10"/>
       <c r="C899" s="9"/>
@@ -8112,7 +8117,7 @@
       <c r="E899" s="9"/>
       <c r="F899" s="11"/>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="9"/>
       <c r="B900" s="10"/>
       <c r="C900" s="9"/>
@@ -8120,7 +8125,7 @@
       <c r="E900" s="9"/>
       <c r="F900" s="11"/>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="9"/>
       <c r="B901" s="10"/>
       <c r="C901" s="9"/>
@@ -8128,7 +8133,7 @@
       <c r="E901" s="9"/>
       <c r="F901" s="11"/>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="9"/>
       <c r="B902" s="10"/>
       <c r="C902" s="9"/>
@@ -8136,7 +8141,7 @@
       <c r="E902" s="9"/>
       <c r="F902" s="11"/>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="9"/>
       <c r="B903" s="10"/>
       <c r="C903" s="9"/>
@@ -8144,7 +8149,7 @@
       <c r="E903" s="9"/>
       <c r="F903" s="11"/>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="9"/>
       <c r="B904" s="10"/>
       <c r="C904" s="9"/>
@@ -8152,7 +8157,7 @@
       <c r="E904" s="9"/>
       <c r="F904" s="11"/>
     </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="9"/>
       <c r="B905" s="10"/>
       <c r="C905" s="9"/>
@@ -8160,7 +8165,7 @@
       <c r="E905" s="9"/>
       <c r="F905" s="11"/>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="9"/>
       <c r="B906" s="10"/>
       <c r="C906" s="9"/>
@@ -8168,7 +8173,7 @@
       <c r="E906" s="9"/>
       <c r="F906" s="11"/>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="9"/>
       <c r="B907" s="10"/>
       <c r="C907" s="9"/>
@@ -8176,7 +8181,7 @@
       <c r="E907" s="9"/>
       <c r="F907" s="11"/>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="9"/>
       <c r="B908" s="10"/>
       <c r="C908" s="9"/>
@@ -8184,7 +8189,7 @@
       <c r="E908" s="9"/>
       <c r="F908" s="11"/>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="9"/>
       <c r="B909" s="10"/>
       <c r="C909" s="9"/>
@@ -8192,7 +8197,7 @@
       <c r="E909" s="9"/>
       <c r="F909" s="11"/>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="9"/>
       <c r="B910" s="10"/>
       <c r="C910" s="9"/>
@@ -8200,7 +8205,7 @@
       <c r="E910" s="9"/>
       <c r="F910" s="11"/>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="9"/>
       <c r="B911" s="10"/>
       <c r="C911" s="9"/>
@@ -8208,7 +8213,7 @@
       <c r="E911" s="9"/>
       <c r="F911" s="11"/>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="9"/>
       <c r="B912" s="10"/>
       <c r="C912" s="9"/>
@@ -8216,7 +8221,7 @@
       <c r="E912" s="9"/>
       <c r="F912" s="11"/>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="9"/>
       <c r="B913" s="10"/>
       <c r="C913" s="9"/>
@@ -8224,7 +8229,7 @@
       <c r="E913" s="9"/>
       <c r="F913" s="11"/>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="9"/>
       <c r="B914" s="10"/>
       <c r="C914" s="9"/>
@@ -8232,7 +8237,7 @@
       <c r="E914" s="9"/>
       <c r="F914" s="11"/>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="9"/>
       <c r="B915" s="10"/>
       <c r="C915" s="9"/>
@@ -8240,7 +8245,7 @@
       <c r="E915" s="9"/>
       <c r="F915" s="11"/>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="9"/>
       <c r="B916" s="10"/>
       <c r="C916" s="9"/>
@@ -8248,7 +8253,7 @@
       <c r="E916" s="9"/>
       <c r="F916" s="11"/>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="9"/>
       <c r="B917" s="10"/>
       <c r="C917" s="9"/>
@@ -8256,7 +8261,7 @@
       <c r="E917" s="9"/>
       <c r="F917" s="11"/>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="9"/>
       <c r="B918" s="10"/>
       <c r="C918" s="9"/>
@@ -8264,7 +8269,7 @@
       <c r="E918" s="9"/>
       <c r="F918" s="11"/>
     </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="9"/>
       <c r="B919" s="10"/>
       <c r="C919" s="9"/>
@@ -8272,7 +8277,7 @@
       <c r="E919" s="9"/>
       <c r="F919" s="11"/>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="9"/>
       <c r="B920" s="10"/>
       <c r="C920" s="9"/>
@@ -8280,7 +8285,7 @@
       <c r="E920" s="9"/>
       <c r="F920" s="11"/>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="9"/>
       <c r="B921" s="10"/>
       <c r="C921" s="9"/>
@@ -8288,7 +8293,7 @@
       <c r="E921" s="9"/>
       <c r="F921" s="11"/>
     </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="9"/>
       <c r="B922" s="10"/>
       <c r="C922" s="9"/>
@@ -8296,7 +8301,7 @@
       <c r="E922" s="9"/>
       <c r="F922" s="11"/>
     </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="9"/>
       <c r="B923" s="10"/>
       <c r="C923" s="9"/>
@@ -8304,7 +8309,7 @@
       <c r="E923" s="9"/>
       <c r="F923" s="11"/>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="9"/>
       <c r="B924" s="10"/>
       <c r="C924" s="9"/>
@@ -8312,7 +8317,7 @@
       <c r="E924" s="9"/>
       <c r="F924" s="11"/>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="9"/>
       <c r="B925" s="10"/>
       <c r="C925" s="9"/>
@@ -8320,7 +8325,7 @@
       <c r="E925" s="9"/>
       <c r="F925" s="11"/>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="9"/>
       <c r="B926" s="10"/>
       <c r="C926" s="9"/>
@@ -8328,7 +8333,7 @@
       <c r="E926" s="9"/>
       <c r="F926" s="11"/>
     </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="9"/>
       <c r="B927" s="10"/>
       <c r="C927" s="9"/>
@@ -8336,7 +8341,7 @@
       <c r="E927" s="9"/>
       <c r="F927" s="11"/>
     </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="9"/>
       <c r="B928" s="10"/>
       <c r="C928" s="9"/>
@@ -8344,7 +8349,7 @@
       <c r="E928" s="9"/>
       <c r="F928" s="11"/>
     </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="9"/>
       <c r="B929" s="10"/>
       <c r="C929" s="9"/>
@@ -8352,7 +8357,7 @@
       <c r="E929" s="9"/>
       <c r="F929" s="11"/>
     </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="9"/>
       <c r="B930" s="10"/>
       <c r="C930" s="9"/>
@@ -8360,7 +8365,7 @@
       <c r="E930" s="9"/>
       <c r="F930" s="11"/>
     </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="9"/>
       <c r="B931" s="10"/>
       <c r="C931" s="9"/>
@@ -8368,7 +8373,7 @@
       <c r="E931" s="9"/>
       <c r="F931" s="11"/>
     </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="9"/>
       <c r="B932" s="10"/>
       <c r="C932" s="9"/>
@@ -8376,7 +8381,7 @@
       <c r="E932" s="9"/>
       <c r="F932" s="11"/>
     </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="9"/>
       <c r="B933" s="10"/>
       <c r="C933" s="9"/>
@@ -8384,7 +8389,7 @@
       <c r="E933" s="9"/>
       <c r="F933" s="11"/>
     </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="9"/>
       <c r="B934" s="10"/>
       <c r="C934" s="9"/>
@@ -8392,7 +8397,7 @@
       <c r="E934" s="9"/>
       <c r="F934" s="11"/>
     </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="9"/>
       <c r="B935" s="10"/>
       <c r="C935" s="9"/>
@@ -8400,7 +8405,7 @@
       <c r="E935" s="9"/>
       <c r="F935" s="11"/>
     </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="9"/>
       <c r="B936" s="10"/>
       <c r="C936" s="9"/>
@@ -8408,7 +8413,7 @@
       <c r="E936" s="9"/>
       <c r="F936" s="11"/>
     </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="9"/>
       <c r="B937" s="10"/>
       <c r="C937" s="9"/>
@@ -8416,7 +8421,7 @@
       <c r="E937" s="9"/>
       <c r="F937" s="11"/>
     </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="9"/>
       <c r="B938" s="10"/>
       <c r="C938" s="9"/>
@@ -8424,7 +8429,7 @@
       <c r="E938" s="9"/>
       <c r="F938" s="11"/>
     </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="9"/>
       <c r="B939" s="10"/>
       <c r="C939" s="9"/>
@@ -8432,7 +8437,7 @@
       <c r="E939" s="9"/>
       <c r="F939" s="11"/>
     </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="9"/>
       <c r="B940" s="10"/>
       <c r="C940" s="9"/>
@@ -8440,7 +8445,7 @@
       <c r="E940" s="9"/>
       <c r="F940" s="11"/>
     </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="9"/>
       <c r="B941" s="10"/>
       <c r="C941" s="9"/>
@@ -8448,7 +8453,7 @@
       <c r="E941" s="9"/>
       <c r="F941" s="11"/>
     </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="9"/>
       <c r="B942" s="10"/>
       <c r="C942" s="9"/>
@@ -8456,7 +8461,7 @@
       <c r="E942" s="9"/>
       <c r="F942" s="11"/>
     </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="9"/>
       <c r="B943" s="10"/>
       <c r="C943" s="9"/>
@@ -8464,7 +8469,7 @@
       <c r="E943" s="9"/>
       <c r="F943" s="11"/>
     </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="9"/>
       <c r="B944" s="10"/>
       <c r="C944" s="9"/>
@@ -8472,7 +8477,7 @@
       <c r="E944" s="9"/>
       <c r="F944" s="11"/>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="9"/>
       <c r="B945" s="10"/>
       <c r="C945" s="9"/>
@@ -8480,7 +8485,7 @@
       <c r="E945" s="9"/>
       <c r="F945" s="11"/>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="9"/>
       <c r="B946" s="10"/>
       <c r="C946" s="9"/>
@@ -8488,7 +8493,7 @@
       <c r="E946" s="9"/>
       <c r="F946" s="11"/>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="9"/>
       <c r="B947" s="10"/>
       <c r="C947" s="9"/>
@@ -8496,7 +8501,7 @@
       <c r="E947" s="9"/>
       <c r="F947" s="11"/>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="9"/>
       <c r="B948" s="10"/>
       <c r="C948" s="9"/>
@@ -8504,7 +8509,7 @@
       <c r="E948" s="9"/>
       <c r="F948" s="11"/>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="9"/>
       <c r="B949" s="10"/>
       <c r="C949" s="9"/>
@@ -8512,7 +8517,7 @@
       <c r="E949" s="9"/>
       <c r="F949" s="11"/>
     </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="9"/>
       <c r="B950" s="10"/>
       <c r="C950" s="9"/>
@@ -8520,7 +8525,7 @@
       <c r="E950" s="9"/>
       <c r="F950" s="11"/>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="9"/>
       <c r="B951" s="10"/>
       <c r="C951" s="9"/>
@@ -8528,7 +8533,7 @@
       <c r="E951" s="9"/>
       <c r="F951" s="11"/>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="9"/>
       <c r="B952" s="10"/>
       <c r="C952" s="9"/>
@@ -8536,7 +8541,7 @@
       <c r="E952" s="9"/>
       <c r="F952" s="11"/>
     </row>
-    <row r="953" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="9"/>
       <c r="B953" s="10"/>
       <c r="C953" s="9"/>
@@ -8544,7 +8549,7 @@
       <c r="E953" s="9"/>
       <c r="F953" s="11"/>
     </row>
-    <row r="954" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="9"/>
       <c r="B954" s="10"/>
       <c r="C954" s="9"/>
@@ -8552,7 +8557,7 @@
       <c r="E954" s="9"/>
       <c r="F954" s="11"/>
     </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="9"/>
       <c r="B955" s="10"/>
       <c r="C955" s="9"/>
@@ -8560,7 +8565,7 @@
       <c r="E955" s="9"/>
       <c r="F955" s="11"/>
     </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="9"/>
       <c r="B956" s="10"/>
       <c r="C956" s="9"/>
@@ -8568,7 +8573,7 @@
       <c r="E956" s="9"/>
       <c r="F956" s="11"/>
     </row>
-    <row r="957" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="9"/>
       <c r="B957" s="10"/>
       <c r="C957" s="9"/>
@@ -8576,7 +8581,7 @@
       <c r="E957" s="9"/>
       <c r="F957" s="11"/>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="9"/>
       <c r="B958" s="10"/>
       <c r="C958" s="9"/>
@@ -8584,7 +8589,7 @@
       <c r="E958" s="9"/>
       <c r="F958" s="11"/>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="9"/>
       <c r="B959" s="10"/>
       <c r="C959" s="9"/>
@@ -8592,7 +8597,7 @@
       <c r="E959" s="9"/>
       <c r="F959" s="11"/>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="9"/>
       <c r="B960" s="10"/>
       <c r="C960" s="9"/>
@@ -8600,7 +8605,7 @@
       <c r="E960" s="9"/>
       <c r="F960" s="11"/>
     </row>
-    <row r="961" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="9"/>
       <c r="B961" s="10"/>
       <c r="C961" s="9"/>
@@ -8608,7 +8613,7 @@
       <c r="E961" s="9"/>
       <c r="F961" s="11"/>
     </row>
-    <row r="962" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="9"/>
       <c r="B962" s="10"/>
       <c r="C962" s="9"/>
@@ -8616,7 +8621,7 @@
       <c r="E962" s="9"/>
       <c r="F962" s="11"/>
     </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="9"/>
       <c r="B963" s="10"/>
       <c r="C963" s="9"/>
@@ -8624,7 +8629,7 @@
       <c r="E963" s="9"/>
       <c r="F963" s="11"/>
     </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="9"/>
       <c r="B964" s="10"/>
       <c r="C964" s="9"/>
@@ -8632,7 +8637,7 @@
       <c r="E964" s="9"/>
       <c r="F964" s="11"/>
     </row>
-    <row r="965" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="9"/>
       <c r="B965" s="10"/>
       <c r="C965" s="9"/>
@@ -8640,7 +8645,7 @@
       <c r="E965" s="9"/>
       <c r="F965" s="11"/>
     </row>
-    <row r="966" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="9"/>
       <c r="B966" s="10"/>
       <c r="C966" s="9"/>
@@ -8648,7 +8653,7 @@
       <c r="E966" s="9"/>
       <c r="F966" s="11"/>
     </row>
-    <row r="967" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="9"/>
       <c r="B967" s="10"/>
       <c r="C967" s="9"/>
@@ -8656,7 +8661,7 @@
       <c r="E967" s="9"/>
       <c r="F967" s="11"/>
     </row>
-    <row r="968" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="9"/>
       <c r="B968" s="10"/>
       <c r="C968" s="9"/>
@@ -8664,7 +8669,7 @@
       <c r="E968" s="9"/>
       <c r="F968" s="11"/>
     </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="9"/>
       <c r="B969" s="10"/>
       <c r="C969" s="9"/>
@@ -8672,7 +8677,7 @@
       <c r="E969" s="9"/>
       <c r="F969" s="11"/>
     </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="9"/>
       <c r="B970" s="10"/>
       <c r="C970" s="9"/>
@@ -8680,7 +8685,7 @@
       <c r="E970" s="9"/>
       <c r="F970" s="11"/>
     </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="9"/>
       <c r="B971" s="10"/>
       <c r="C971" s="9"/>
@@ -8688,7 +8693,7 @@
       <c r="E971" s="9"/>
       <c r="F971" s="11"/>
     </row>
-    <row r="972" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="9"/>
       <c r="B972" s="10"/>
       <c r="C972" s="9"/>
@@ -8696,7 +8701,7 @@
       <c r="E972" s="9"/>
       <c r="F972" s="11"/>
     </row>
-    <row r="973" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="9"/>
       <c r="B973" s="10"/>
       <c r="C973" s="9"/>
@@ -8704,7 +8709,7 @@
       <c r="E973" s="9"/>
       <c r="F973" s="11"/>
     </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="9"/>
       <c r="B974" s="10"/>
       <c r="C974" s="9"/>
@@ -8712,7 +8717,7 @@
       <c r="E974" s="9"/>
       <c r="F974" s="11"/>
     </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="9"/>
       <c r="B975" s="10"/>
       <c r="C975" s="9"/>
@@ -8720,7 +8725,7 @@
       <c r="E975" s="9"/>
       <c r="F975" s="11"/>
     </row>
-    <row r="976" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="9"/>
       <c r="B976" s="10"/>
       <c r="C976" s="9"/>
@@ -8728,7 +8733,7 @@
       <c r="E976" s="9"/>
       <c r="F976" s="11"/>
     </row>
-    <row r="977" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="9"/>
       <c r="B977" s="10"/>
       <c r="C977" s="9"/>
@@ -8736,7 +8741,7 @@
       <c r="E977" s="9"/>
       <c r="F977" s="11"/>
     </row>
-    <row r="978" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="9"/>
       <c r="B978" s="10"/>
       <c r="C978" s="9"/>
@@ -8744,7 +8749,7 @@
       <c r="E978" s="9"/>
       <c r="F978" s="11"/>
     </row>
-    <row r="979" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="9"/>
       <c r="B979" s="10"/>
       <c r="C979" s="9"/>
@@ -8752,7 +8757,7 @@
       <c r="E979" s="9"/>
       <c r="F979" s="11"/>
     </row>
-    <row r="980" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="9"/>
       <c r="B980" s="10"/>
       <c r="C980" s="9"/>
@@ -8760,7 +8765,7 @@
       <c r="E980" s="9"/>
       <c r="F980" s="11"/>
     </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="9"/>
       <c r="B981" s="10"/>
       <c r="C981" s="9"/>
@@ -8768,7 +8773,7 @@
       <c r="E981" s="9"/>
       <c r="F981" s="11"/>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="9"/>
       <c r="B982" s="10"/>
       <c r="C982" s="9"/>
@@ -8776,7 +8781,7 @@
       <c r="E982" s="9"/>
       <c r="F982" s="11"/>
     </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="9"/>
       <c r="B983" s="10"/>
       <c r="C983" s="9"/>
@@ -8784,7 +8789,7 @@
       <c r="E983" s="9"/>
       <c r="F983" s="11"/>
     </row>
-    <row r="984" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="9"/>
       <c r="B984" s="10"/>
       <c r="C984" s="9"/>
@@ -8792,7 +8797,7 @@
       <c r="E984" s="9"/>
       <c r="F984" s="11"/>
     </row>
-    <row r="985" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="9"/>
       <c r="B985" s="10"/>
       <c r="C985" s="9"/>
@@ -8800,7 +8805,7 @@
       <c r="E985" s="9"/>
       <c r="F985" s="11"/>
     </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="9"/>
       <c r="B986" s="10"/>
       <c r="C986" s="9"/>
@@ -8808,7 +8813,7 @@
       <c r="E986" s="9"/>
       <c r="F986" s="11"/>
     </row>
-    <row r="987" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="9"/>
       <c r="B987" s="10"/>
       <c r="C987" s="9"/>
@@ -8816,7 +8821,7 @@
       <c r="E987" s="9"/>
       <c r="F987" s="11"/>
     </row>
-    <row r="988" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="9"/>
       <c r="B988" s="10"/>
       <c r="C988" s="9"/>
@@ -8824,7 +8829,7 @@
       <c r="E988" s="9"/>
       <c r="F988" s="11"/>
     </row>
-    <row r="989" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="9"/>
       <c r="B989" s="10"/>
       <c r="C989" s="9"/>
@@ -8832,7 +8837,7 @@
       <c r="E989" s="9"/>
       <c r="F989" s="11"/>
     </row>
-    <row r="990" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="9"/>
       <c r="B990" s="10"/>
       <c r="C990" s="9"/>
@@ -8840,7 +8845,7 @@
       <c r="E990" s="9"/>
       <c r="F990" s="11"/>
     </row>
-    <row r="991" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="9"/>
       <c r="B991" s="10"/>
       <c r="C991" s="9"/>
@@ -8848,7 +8853,7 @@
       <c r="E991" s="9"/>
       <c r="F991" s="11"/>
     </row>
-    <row r="992" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="9"/>
       <c r="B992" s="10"/>
       <c r="C992" s="9"/>
@@ -8856,7 +8861,7 @@
       <c r="E992" s="9"/>
       <c r="F992" s="11"/>
     </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A993" s="9"/>
       <c r="B993" s="10"/>
       <c r="C993" s="9"/>
